--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D50_R75_PPproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D50_R75_PPproporcion.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z81"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,14 +604,14 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K2" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -621,34 +621,34 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[123, 168, 167, 21, 161, 3, 53]</t>
+          <t>[1, 167, 163, 157, 3, 32, 53]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 1, 1]</t>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.0, 0.4420248568058014, 0.8503342866897583, 0.8820913434028625, 1.058899164199829, 1.4505605697631836, 1.4763151407241821]</t>
+          <t>[0.0, 0.48484399914741516, 0.9375274181365967, 1.210782527923584, 1.4197405576705933, 1.4914908409118652, 1.5236177444458008]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[123, 167, 161, 3, 53, 32, 24]</t>
+          <t>[122, 163, 157, 3, 32, 53, 24]</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.0, 0.8503342866897583, 1.058899164199829, 1.4505605697631836, 1.4763151407241821, 1.4821938276290894, 1.6584436893463135]</t>
+          <t>[0.0, 0.9375274181365967, 1.210782527923584, 1.4197405576705933, 1.4914908409118652, 1.5236177444458008, 1.657482385635376]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.254729898305918</v>
+        <v>1.455615620282754</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.481248</t>
+          <t>2025-11-12T07:22:53.231279</t>
         </is>
       </c>
     </row>
@@ -690,14 +690,14 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K3" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
@@ -707,47 +707,43 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[93, 126, 33, 18, 82, 50, 61]</t>
+          <t>[93, 125, 135, 18, 50, 82, 76]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 1, 1]</t>
+          <t>[1, 1, 0, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.5071632266044617, 0.5966512560844421, 0.7205927968025208, 0.9068948030471802, 0.9433731436729431, 0.9480506777763367, 1.0509742498397827]</t>
+          <t>[0.5625253915786743, 0.6119475960731506, 0.7835078835487366, 0.8744251132011414, 0.9309601187705994, 0.9353270530700684, 1.0167852640151978]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[93, 126, 18, 82, 50, 61, 144]</t>
+          <t>[93, 125, 18, 50, 82, 61, 143]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.5071632266044617, 0.5966512560844421, 0.9068948030471802, 0.9433731436729431, 0.9480506777763367, 1.0509742498397827, 1.0991559028625488]</t>
+          <t>[0.5625253915786743, 0.6119475960731506, 0.8744251132011414, 0.9309601187705994, 0.9353270530700684, 1.0463417768478394, 1.07241690158844]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9457119417515754</v>
+        <v>0.9331435854608574</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.5877105418031501</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.482248</t>
+          <t>2025-11-12T07:22:53.231279</t>
         </is>
       </c>
     </row>
@@ -797,7 +793,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[53, 32, 168, 24, 130, 123, 1]</t>
+          <t>[53, 32, 167, 24, 163, 1, 122]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -807,24 +803,24 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[0.455355167388916, 0.8921074271202087, 1.2000261545181274, 1.298391342163086, 1.401395559310913, 1.4505605697631836, 1.4505605697631836]</t>
+          <t>[0.4891885817050934, 0.9434683322906494, 1.1785125732421875, 1.336492896080017, 1.3964189291000366, 1.4197405576705933, 1.4197405576705933]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[53, 32, 24, 130, 123, 1, 167]</t>
+          <t>[53, 32, 24, 163, 122, 1, 26]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[0.455355167388916, 0.8921074271202087, 1.298391342163086, 1.401395559310913, 1.4505605697631836, 1.4505605697631836, 1.4730157852172852]</t>
+          <t>[0.4891885817050934, 0.9434683322906494, 1.336492896080017, 1.3964189291000366, 1.4197405576705933, 1.4197405576705933, 1.70027756690979]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.425978078504997</v>
+        <v>1.408079753538835</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -833,7 +829,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.482248</t>
+          <t>2025-11-12T07:22:53.232275</t>
         </is>
       </c>
     </row>
@@ -866,14 +862,14 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K5" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
@@ -883,34 +879,34 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[13, 26, 24, 32, 101, 106, 15]</t>
+          <t>[13, 26, 24, 32, 106, 53, 7]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.12940865755081177, 0.22869402170181274, 1.1170023679733276, 1.2403351068496704, 1.4069324731826782, 1.4521453380584717, 1.5354762077331543]</t>
+          <t>[0.129868745803833, 0.23471945524215698, 1.1081690788269043, 1.2076411247253418, 1.5057982206344604, 1.643641710281372, 1.7287124395370483]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[13, 26, 24, 32, 106, 50, 53]</t>
+          <t>[13, 26, 24, 32, 106, 53, 3]</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[0.12940865755081177, 0.22869402170181274, 1.1170023679733276, 1.2403351068496704, 1.4521453380584717, 1.5693738460540771, 1.6345467567443848]</t>
+          <t>[0.129868745803833, 0.23471945524215698, 1.1081690788269043, 1.2076411247253418, 1.5057982206344604, 1.643641710281372, 1.8078194856643677]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.429538894099388</v>
+        <v>1.574719990280985</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -919,7 +915,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.482248</t>
+          <t>2025-11-12T07:22:53.232275</t>
         </is>
       </c>
     </row>
@@ -969,7 +965,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[136, 39, 140, 18, 93, 20, 64]</t>
+          <t>[153, 77, 100, 18, 64, 93, 2]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -979,24 +975,24 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.6077335476875305, 0.9027080535888672, 1.1331326961517334, 1.2805808782577515, 1.3264669179916382, 1.3311595916748047, 1.3371775150299072]</t>
+          <t>[0.6378631591796875, 0.935165524482727, 1.3095982074737549, 1.330820918083191, 1.3600478172302246, 1.4256715774536133, 1.499076008796692]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[18, 93, 20, 64, 135, 2, 86]</t>
+          <t>[18, 64, 93, 2, 20, 134, 50]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[1.2805808782577515, 1.3264669179916382, 1.3311595916748047, 1.3371775150299072, 1.4199833869934082, 1.4782922267913818, 1.6632344722747803]</t>
+          <t>[1.330820918083191, 1.3600478172302246, 1.4256715774536133, 1.499076008796692, 1.6188528537750244, 1.7159433364868164, 1.8405978679656982]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.328813223312554</v>
+        <v>1.392859696984818</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1005,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.482248</t>
+          <t>2025-11-12T07:22:53.233273</t>
         </is>
       </c>
     </row>
@@ -1038,14 +1034,14 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K7" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -1055,34 +1051,34 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[10, 26, 24, 32, 106, 101, 159]</t>
+          <t>[10, 26, 24, 32, 106, 53, 7]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.12940865755081177, 0.1698651760816574, 1.0425567626953125, 1.204719066619873, 1.3908840417861938, 1.415239691734314, 1.5662968158721924]</t>
+          <t>[0.129868745803833, 0.17742449045181274, 1.032532811164856, 1.1707662343978882, 1.4463818073272705, 1.6146537065505981, 1.7653979063034058]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[10, 26, 24, 32, 106, 53, 50]</t>
+          <t>[10, 26, 24, 32, 106, 53, 3]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[0.12940865755081177, 0.1698651760816574, 1.0425567626953125, 1.204719066619873, 1.3908840417861938, 1.6056026220321655, 1.61668062210083]</t>
+          <t>[0.129868745803833, 0.17742449045181274, 1.032532811164856, 1.1707662343978882, 1.4463818073272705, 1.6146537065505981, 1.7815049886703491]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.4030618540358</v>
+        <v>1.530517795247658</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1091,7 +1087,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.482248</t>
+          <t>2025-11-12T07:22:53.233273</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1137,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[9, 74, 111, 76, 63, 117, 110]</t>
+          <t>[165, 74, 111, 40, 110, 63, 117]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1151,24 +1147,24 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.3007749617099762, 0.30740076303482056, 0.31928902864456177, 0.32229676842689514, 0.41656363010406494, 0.4304656386375427, 0.44089385867118835]</t>
+          <t>[0.31967228651046753, 0.3256034255027771, 0.3461134135723114, 0.34972861409187317, 0.4679355025291443, 0.4780178666114807, 0.5141596794128418]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[74, 111, 63, 117, 110, 68, 85]</t>
+          <t>[74, 111, 110, 63, 117, 37, 85]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[0.30740076303482056, 0.31928902864456177, 0.41656363010406494, 0.4304656386375427, 0.44089385867118835, 0.5136011242866516, 0.5309708714485168]</t>
+          <t>[0.3256034255027771, 0.3461134135723114, 0.4679355025291443, 0.4780178666114807, 0.5141596794128418, 0.5391674637794495, 0.5569250583648682]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4235146488785079</v>
+        <v>0.4729766944833479</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1177,7 +1173,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.482248</t>
+          <t>2025-11-12T07:22:53.233273</t>
         </is>
       </c>
     </row>
@@ -1210,14 +1206,14 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K9" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -1227,34 +1223,34 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[93, 164, 39, 64, 2, 50, 20]</t>
+          <t>[93, 76, 64, 2, 50, 77, 155]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 1, 1, 1]</t>
+          <t>[1, 0, 1, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.6627287864685059, 0.6960263848304749, 0.8507265448570251, 0.8726915717124939, 0.9068948030471802, 0.919141948223114, 0.9360898733139038]</t>
+          <t>[0.6616442203521729, 0.8298359513282776, 0.8517654538154602, 0.8744251132011414, 0.9215759038925171, 0.9406828880310059, 1.091102123260498]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[93, 64, 2, 50, 20, 135, 86]</t>
+          <t>[93, 64, 2, 50, 20, 125, 134]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.6627287864685059, 0.8726915717124939, 0.9068948030471802, 0.919141948223114, 0.9360898733139038, 1.0953865051269531, 1.139807105064392]</t>
+          <t>[0.6616442203521729, 0.8517654538154602, 0.8744251132011414, 0.9215759038925171, 1.101119875907898, 1.1768168210983276, 1.2739721536636353]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9130183614339276</v>
+        <v>0.9311293830279057</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
@@ -1263,11 +1259,11 @@
         <v>0.5193700315892974</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.482248</t>
+          <t>2025-11-12T07:22:53.237500</t>
         </is>
       </c>
     </row>
@@ -1300,14 +1296,14 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K10" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
@@ -1317,34 +1313,34 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[135, 164, 86, 75, 39, 18, 93]</t>
+          <t>[134, 86, 43, 77, 93, 18, 64]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 1, 1]</t>
+          <t>[1, 1, 0, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.3977104723453522, 0.4822434186935425, 0.6578987836837769, 0.7329282760620117, 0.799453854560852, 0.9360898733139038, 0.993069589138031]</t>
+          <t>[0.4291931390762329, 0.7041640281677246, 0.7866758108139038, 1.0205904245376587, 1.092565894126892, 1.101119875907898, 1.4140686988830566]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[135, 86, 18, 93, 64, 11, 2]</t>
+          <t>[134, 86, 93, 18, 64, 2, 125]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.3977104723453522, 0.6578987836837769, 0.9360898733139038, 0.993069589138031, 1.2080645561218262, 1.3311595916748047, 1.3493456840515137]</t>
+          <t>[0.4291931390762329, 0.7041640281677246, 1.092565894126892, 1.101119875907898, 1.4140686988830566, 1.4764940738677979, 1.5760524272918701]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8677718825175385</v>
+        <v>1.096842903314871</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1353,7 +1349,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.482248</t>
+          <t>2025-11-12T07:22:53.237500</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1409,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.5182933211326599, 0.9262551069259644, 1.0425567626953125, 1.1170023679733276, 1.1228587627410889, 1.1462832689285278, 1.298391342163086]</t>
+          <t>[0.5184880495071411, 0.9225032329559326, 1.032532811164856, 1.1081690788269043, 1.2583378553390503, 1.3292838335037231, 1.336492896080017]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1423,14 +1419,14 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.5182933211326599, 0.9262551069259644, 1.0425567626953125, 1.1170023679733276, 1.1228587627410889, 1.1462832689285278, 1.298391342163086]</t>
+          <t>[0.5184880495071411, 0.9225032329559326, 1.032532811164856, 1.1081690788269043, 1.2583378553390503, 1.3292838335037231, 1.336492896080017]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.134570996818142</v>
+        <v>1.293810808621087</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1439,7 +1435,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.482248</t>
+          <t>2025-11-12T07:22:53.238076</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1472,51 +1468,51 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[13, 10, 24, 32, 101, 106, 53]</t>
+          <t>[13, 10, 24, 32, 106, 53, 3]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.1698651760816574, 0.22869402170181274, 0.9262551069259644, 1.0758094787597656, 1.3599109649658203, 1.37345290184021, 1.506775975227356]</t>
+          <t>[0.17742449045181274, 0.23471945524215698, 0.9225032329559326, 1.0498614311218262, 1.4604705572128296, 1.535957932472229, 1.70027756690979]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[13, 10, 24, 32, 106, 53, 50]</t>
+          <t>[13, 10, 24, 32, 106, 53, 3]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[0.1698651760816574, 0.22869402170181274, 0.9262551069259644, 1.0758094787597656, 1.37345290184021, 1.506775975227356, 1.558606743812561]</t>
+          <t>[0.17742449045181274, 0.23471945524215698, 0.9225032329559326, 1.0498614311218262, 1.4604705572128296, 1.535957932472229, 1.70027756690979]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.366681929109135</v>
+        <v>1.498214223412375</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1525,7 +1521,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.483248</t>
+          <t>2025-11-12T07:22:53.238680</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1571,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[141, 37, 117, 110, 55, 68, 74]</t>
+          <t>[115, 37, 74, 68, 16, 110, 117]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1585,24 +1581,24 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.5352326035499573, 0.5760443806648254, 0.7319240570068359, 0.7476316690444946, 0.7584215402603149, 0.7982650399208069, 0.8102375268936157]</t>
+          <t>[0.5536484122276306, 0.7241610288619995, 0.8312468528747559, 0.8535651564598083, 0.8906875848770142, 0.9061747193336487, 0.9066646099090576]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[37, 117, 110, 55, 68, 74, 16]</t>
+          <t>[37, 74, 68, 16, 110, 117, 61]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[0.5760443806648254, 0.7319240570068359, 0.7476316690444946, 0.7584215402603149, 0.7982650399208069, 0.8102375268936157, 0.8236029148101807]</t>
+          <t>[0.7241610288619995, 0.8312468528747559, 0.8535651564598083, 0.8906875848770142, 0.9061747193336487, 0.9066646099090576, 0.9517606496810913]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7783432860144076</v>
+        <v>0.898431150527495</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1611,7 +1607,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.483248</t>
+          <t>2025-11-12T07:22:53.239248</t>
         </is>
       </c>
     </row>
@@ -1661,34 +1657,34 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[24, 53, 3, 26, 13, 168, 130]</t>
+          <t>[24, 53, 3, 26, 13, 10, 167]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.5182933211326599, 0.7708574533462524, 0.8921074271202087, 1.0758094787597656, 1.204719066619873, 1.2284033298492432, 1.238690733909607]</t>
+          <t>[0.5184880495071411, 0.9351325631141663, 0.9434683322906494, 1.0498614311218262, 1.1707662343978882, 1.2076411247253418, 1.2328144311904907]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[24, 53, 3, 26, 13, 130, 10]</t>
+          <t>[24, 53, 3, 26, 13, 10, 163]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[0.5182933211326599, 0.7708574533462524, 0.8921074271202087, 1.0758094787597656, 1.204719066619873, 1.238690733909607, 1.2403351068496704]</t>
+          <t>[0.5184880495071411, 0.9351325631141663, 0.9434683322906494, 1.0498614311218262, 1.1707662343978882, 1.2076411247253418, 1.4274630546569824]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.216561173308878</v>
+        <v>1.189203738877948</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1697,7 +1693,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.483248</t>
+          <t>2025-11-12T07:22:53.239763</t>
         </is>
       </c>
     </row>
@@ -1730,14 +1726,14 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K15" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
@@ -1747,34 +1743,34 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[55, 124, 110, 71, 117, 103, 76]</t>
+          <t>[55, 123, 117, 110, 16, 40, 71]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.26203104853630066, 0.3978515863418579, 0.5077478289604187, 0.5131158232688904, 0.5291309952735901, 0.5316541194915771, 0.5403203368186951]</t>
+          <t>[0.3100268542766571, 0.5126516819000244, 0.516476035118103, 0.5181021094322205, 0.5391674637794495, 0.5674997568130493, 0.5835224986076355]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[55, 124, 110, 71, 117, 30, 16]</t>
+          <t>[55, 123, 117, 110, 16, 71, 63]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[0.26203104853630066, 0.3978515863418579, 0.5077478289604187, 0.5131158232688904, 0.5291309952735901, 0.5760443806648254, 0.5815709829330444]</t>
+          <t>[0.3100268542766571, 0.5126516819000244, 0.516476035118103, 0.5181021094322205, 0.5391674637794495, 0.5835224986076355, 0.5938102006912231]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5303925546210846</v>
+        <v>0.5533335965157559</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,7 +1779,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.483248</t>
+          <t>2025-11-12T07:22:53.239952</t>
         </is>
       </c>
     </row>
@@ -1816,14 +1812,14 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K16" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
@@ -1833,34 +1829,34 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[20, 135, 86, 164, 52, 64, 39]</t>
+          <t>[20, 134, 86, 77, 64, 43, 18]</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 1, 0]</t>
+          <t>[1, 1, 1, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[1.6075495481491089, 1.7058182954788208, 1.7214041948318481, 1.7413958311080933, 1.8856606483459473, 1.941575050354004, 1.985748291015625]</t>
+          <t>[1.8015823364257812, 1.9035998582839966, 1.96121084690094, 2.2015280723571777, 2.255298137664795, 2.321388006210327, 2.3546102046966553]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>[20, 135, 86, 64, 18, 93, 11]</t>
+          <t>[20, 134, 86, 64, 18, 93, 11]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[1.6075495481491089, 1.7058182954788208, 1.7214041948318481, 1.941575050354004, 2.099283218383789, 2.3223049640655518, 2.413166046142578]</t>
+          <t>[1.8015823364257812, 1.9035998582839966, 1.96121084690094, 2.255298137664795, 2.3546102046966553, 2.5247254371643066, 2.6951305866241455]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.913617831685669</v>
+        <v>2.288343087707235</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1869,7 +1865,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.483248</t>
+          <t>2025-11-12T07:22:53.239952</t>
         </is>
       </c>
     </row>
@@ -1919,34 +1915,34 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[137, 150, 142, 130, 120, 58, 6]</t>
+          <t>[129, 136, 84, 146, 120, 141, 70]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0, 0]</t>
+          <t>[1, 1, 0, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.8904705047607422, 0.9498926997184753, 0.9758562445640564, 1.0015952587127686, 1.0113223791122437, 1.0445706844329834, 1.1344202756881714]</t>
+          <t>[1.076499581336975, 1.0836451053619385, 1.1043514013290405, 1.1855159997940063, 1.2097294330596924, 1.308249831199646, 1.4837433099746704]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[137, 150, 142, 130, 120, 32, 124]</t>
+          <t>[129, 136, 146, 120, 141, 32, 71]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[0.8904705047607422, 0.9498926997184753, 0.9758562445640564, 1.0015952587127686, 1.0113223791122437, 1.4676250219345093, 1.4949976205825806]</t>
+          <t>[1.076499581336975, 1.0836451053619385, 1.1855159997940063, 1.2097294330596924, 1.308249831199646, 1.676308274269104, 1.6889221668243408]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.027946549457562</v>
+        <v>1.25898959261418</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1955,7 +1951,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.483248</t>
+          <t>2025-11-12T07:22:53.240519</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2001,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[138, 128, 111, 63, 85, 110, 117]</t>
+          <t>[137, 127, 111, 63, 110, 85, 117]</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2015,24 +2011,24 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.22816817462444305, 0.24486501514911652, 0.34273430705070496, 0.3655383288860321, 0.37045618891716003, 0.4037454128265381, 0.45551687479019165]</t>
+          <t>[0.285773366689682, 0.32066431641578674, 0.37676939368247986, 0.3915724754333496, 0.4206562042236328, 0.4584267735481262, 0.47806188464164734]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>[138, 128, 111, 63, 85, 110, 117]</t>
+          <t>[137, 127, 111, 63, 110, 85, 117]</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[0.22816817462444305, 0.24486501514911652, 0.34273430705070496, 0.3655383288860321, 0.37045618891716003, 0.4037454128265381, 0.45551687479019165]</t>
+          <t>[0.285773366689682, 0.32066431641578674, 0.37676939368247986, 0.3915724754333496, 0.4206562042236328, 0.4584267735481262, 0.47806188464164734]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3871007922881953</v>
+        <v>0.4395414765052859</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2041,7 +2037,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.483248</t>
+          <t>2025-11-12T07:22:53.240519</t>
         </is>
       </c>
     </row>
@@ -2074,14 +2070,14 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K19" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
@@ -2091,34 +2087,34 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[101, 131, 144, 33, 126, 18, 93]</t>
+          <t>[76, 78, 6, 18, 135, 2, 155]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 1, 1, 1]</t>
+          <t>[0, 0, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.6700303554534912, 0.7245572209358215, 0.8207784295082092, 0.8380783796310425, 0.91129469871521, 0.919141948223114, 0.9428142309188843]</t>
+          <t>[0.5962927341461182, 0.7323093414306641, 0.8878015875816345, 0.9215759038925171, 0.9274415373802185, 0.9309601187705994, 0.9559453129768372]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>[144, 126, 18, 93, 2, 61, 73]</t>
+          <t>[18, 2, 143, 61, 125, 93, 64]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[0.8207784295082092, 0.91129469871521, 0.919141948223114, 0.9428142309188843, 0.9480506777763367, 0.9742568731307983, 1.495444893836975]</t>
+          <t>[0.9215759038925171, 0.9309601187705994, 0.9594192504882812, 1.0059380531311035, 1.0131018161773682, 1.0313117504119873, 1.5527194738388062]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>0.9152183341948804</v>
+        <v>0.9292008317011637</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2127,7 +2123,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.483248</t>
+          <t>2025-11-12T07:22:53.241081</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2173,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[3, 32, 24, 168, 167, 1, 123]</t>
+          <t>[3, 32, 24, 167, 163, 122, 1]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2187,24 +2183,24 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.455355167388916, 0.7708574533462524, 1.1228587627410889, 1.2940304279327393, 1.4607783555984497, 1.4763151407241821, 1.4763151407241821]</t>
+          <t>[0.4891885817050934, 0.9351325631141663, 1.2583378553390503, 1.366477608680725, 1.4423130750656128, 1.5236177444458008, 1.5236177444458008]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[3, 32, 24, 167, 123, 1, 26]</t>
+          <t>[3, 32, 24, 163, 122, 1, 26]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[0.455355167388916, 0.7708574533462524, 1.1228587627410889, 1.4607783555984497, 1.4763151407241821, 1.4763151407241821, 1.506775975227356]</t>
+          <t>[0.4891885817050934, 0.9351325631141663, 1.2583378553390503, 1.4423130750656128, 1.5236177444458008, 1.5236177444458008, 1.535957932472229]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.46854679165838</v>
+        <v>1.482965390743993</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2213,7 +2209,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.483248</t>
+          <t>2025-11-12T07:22:53.241081</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2242,14 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K21" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
@@ -2263,34 +2259,34 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[37, 124, 31, 103, 6, 145, 9]</t>
+          <t>[37, 123, 70, 117, 75, 69, 16]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.26203104853630066, 0.33407479524612427, 0.44496896862983704, 0.5353369116783142, 0.5808002948760986, 0.6220324635505676, 0.6349945664405823]</t>
+          <t>[0.3100268542766571, 0.4077055752277374, 0.47035497426986694, 0.6203934550285339, 0.6287567019462585, 0.6307176947593689, 0.6865298748016357]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[37, 124, 117, 16, 71, 110, 63]</t>
+          <t>[37, 123, 117, 16, 63, 110, 71]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[0.26203104853630066, 0.33407479524612427, 0.6354897022247314, 0.6747813820838928, 0.6835541129112244, 0.6945022344589233, 0.725619375705719]</t>
+          <t>[0.3100268542766571, 0.4077055752277374, 0.6203934550285339, 0.6865298748016357, 0.7180225849151611, 0.7294154763221741, 0.7597788572311401]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>0.601416360487085</v>
+        <v>0.6297371756543032</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2299,7 +2295,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.484247</t>
+          <t>2025-11-12T07:22:53.241081</t>
         </is>
       </c>
     </row>
@@ -2349,47 +2345,43 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[90, 79, 71, 99, 103, 110, 17]</t>
+          <t>[90, 79, 69, 99, 71, 17, 63]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 0, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.22162799537181854, 0.3359346091747284, 0.47105836868286133, 0.4770033061504364, 0.4871639609336853, 0.5272589921951294, 0.5433007478713989]</t>
+          <t>[0.2648962140083313, 0.3291603624820709, 0.5103800892829895, 0.53846275806427, 0.5723572969436646, 0.5968208312988281, 0.6341315507888794]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[90, 79, 71, 99, 110, 63, 37]</t>
+          <t>[90, 79, 99, 71, 63, 110, 49]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[0.22162799537181854, 0.3359346091747284, 0.47105836868286133, 0.4770033061504364, 0.5272589921951294, 0.5959763526916504, 0.6228371858596802]</t>
+          <t>[0.2648962140083313, 0.3291603624820709, 0.53846275806427, 0.5723572969436646, 0.6341315507888794, 0.6482275128364563, 0.6494924426078796]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5072114582915412</v>
+        <v>0.584589039690414</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.4918497783931735</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.484247</t>
+          <t>2025-11-12T07:22:53.241637</t>
         </is>
       </c>
     </row>
@@ -2422,14 +2414,14 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K23" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
@@ -2439,43 +2431,47 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[126, 144, 30, 50, 33, 2, 141]</t>
+          <t>[30, 125, 50, 2, 115, 143, 37]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 1, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.7968783378601074, 0.9135709404945374, 0.9677942991256714, 0.9742568731307983, 1.0217220783233643, 1.0509742498397827, 1.088165283203125]</t>
+          <t>[0.9517606496810913, 0.9638957381248474, 1.0059380531311035, 1.0463417768478394, 1.0661730766296387, 1.1271377801895142, 1.1515058279037476]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[126, 144, 30, 50, 2, 37, 73]</t>
+          <t>[30, 125, 50, 2, 143, 37, 82]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[0.7968783378601074, 0.9135709404945374, 0.9677942991256714, 0.9742568731307983, 1.0509742498397827, 1.1017946004867554, 1.1369935274124146]</t>
+          <t>[0.9517606496810913, 0.9638957381248474, 1.0059380531311035, 1.0463417768478394, 1.1271377801895142, 1.1515058279037476, 1.1925890445709229]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.036348183667951</v>
+        <v>1.096655438561091</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.4918497783931735</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>50</v>
+      </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.484247</t>
+          <t>2025-11-12T07:22:53.241637</t>
         </is>
       </c>
     </row>
@@ -2525,34 +2521,34 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[111, 110, 49, 117, 143, 74, 16]</t>
+          <t>[111, 49, 110, 9, 117, 16, 156]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.26537278294563293, 0.3534441888332367, 0.3655383288860321, 0.37331050634384155, 0.3796297311782837, 0.39677804708480835, 0.41656363010406494]</t>
+          <t>[0.3099047541618347, 0.3915724754333496, 0.4099559187889099, 0.42432305216789246, 0.42900988459587097, 0.4780178666114807, 0.48099973797798157]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[111, 110, 49, 117, 74, 16, 128]</t>
+          <t>[111, 49, 110, 117, 16, 156, 74]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[0.26537278294563293, 0.3534441888332367, 0.3655383288860321, 0.37331050634384155, 0.39677804708480835, 0.41656363010406494, 0.4334620237350464]</t>
+          <t>[0.3099047541618347, 0.3915724754333496, 0.4099559187889099, 0.42900988459587097, 0.4780178666114807, 0.48099973797798157, 0.4831402599811554]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3882038961444785</v>
+        <v>0.4535138931547853</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2561,7 +2557,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.484247</t>
+          <t>2025-11-12T07:22:53.241637</t>
         </is>
       </c>
     </row>
@@ -2611,34 +2607,34 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[151, 18, 164, 115, 136, 20, 39]</t>
+          <t>[52, 18, 39, 153, 77, 155, 11]</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 1, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.7744289636611938, 0.8726915717124939, 0.9366227388381958, 1.1058002710342407, 1.2067434787750244, 1.2080645561218262, 1.2272772789001465]</t>
+          <t>[0.7759283781051636, 0.8517654538154602, 1.119865894317627, 1.1665688753128052, 1.2623952627182007, 1.2731965780258179, 1.3600478172302246]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[18, 20, 86, 135, 11, 93, 50]</t>
+          <t>[18, 11, 20, 93, 86, 50, 134]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[0.8726915717124939, 1.2080645561218262, 1.2516870498657227, 1.3304789066314697, 1.3371775150299072, 1.4364837408065796, 1.602185606956482]</t>
+          <t>[0.8517654538154602, 1.3600478172302246, 1.4140686988830566, 1.4452286958694458, 1.5044609308242798, 1.5527194738388062, 1.5550521612167358]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.207404005595429</v>
+        <v>1.267795875594791</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2647,7 +2643,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.484247</t>
+          <t>2025-11-12T07:22:53.242190</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2693,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[85, 128, 110, 111, 138, 117, 49]</t>
+          <t>[85, 127, 110, 111, 137, 74, 16]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2707,24 +2703,24 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.23407834768295288, 0.3419783413410187, 0.35677751898765564, 0.37327322363853455, 0.40499499440193176, 0.45675554871559143, 0.46399742364883423]</t>
+          <t>[0.24307456612586975, 0.3812859058380127, 0.4107741117477417, 0.4541611671447754, 0.46767961978912354, 0.5492041110992432, 0.5670666098594666]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[85, 128, 110, 111, 138, 117, 49]</t>
+          <t>[85, 127, 110, 111, 137, 74, 16]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[0.23407834768295288, 0.3419783413410187, 0.35677751898765564, 0.37327322363853455, 0.40499499440193176, 0.45675554871559143, 0.46399742364883423]</t>
+          <t>[0.24307456612586975, 0.3812859058380127, 0.4107741117477417, 0.4541611671447754, 0.46767961978912354, 0.5492041110992432, 0.5670666098594666]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4308752930835846</v>
+        <v>0.5084418717348278</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2733,7 +2729,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.484247</t>
+          <t>2025-11-12T07:22:53.242190</t>
         </is>
       </c>
     </row>
@@ -2766,14 +2762,14 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K27" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
@@ -2783,34 +2779,34 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[90, 79, 57, 102, 17, 103, 37]</t>
+          <t>[90, 15, 79, 57, 37, 9, 123]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.40712061524391174, 0.4340638518333435, 0.47105836868286133, 0.4762324094772339, 0.48555275797843933, 0.5002703666687012, 0.5131158232688904]</t>
+          <t>[0.4762190580368042, 0.5496227741241455, 0.5667364001274109, 0.5723572969436646, 0.5835224986076355, 0.5945829749107361, 0.5980291366577148]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[90, 79, 57, 37, 124, 97, 110]</t>
+          <t>[90, 79, 57, 37, 123, 110, 97]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[0.40712061524391174, 0.4340638518333435, 0.47105836868286133, 0.5131158232688904, 0.5412389039993286, 0.5669599771499634, 0.6109216809272766]</t>
+          <t>[0.4762190580368042, 0.5667364001274109, 0.5723572969436646, 0.5835224986076355, 0.5980291366577148, 0.613896369934082, 0.6567456126213074]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4929115494357106</v>
+        <v>0.5890527358473263</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2819,7 +2815,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.484247</t>
+          <t>2025-11-12T07:22:53.242747</t>
         </is>
       </c>
     </row>
@@ -2869,34 +2865,34 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[69, 36, 40, 29, 126, 154, 133]</t>
+          <t>[130, 72, 140, 36, 150, 125, 95]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.7071465253829956, 0.796012818813324, 0.7980440855026245, 0.8044586777687073, 0.8550234436988831, 0.874969482421875, 0.9194134473800659]</t>
+          <t>[0.8359204530715942, 0.8565196394920349, 0.8603360056877136, 0.87565678358078, 0.9158304333686829, 0.9292263388633728, 0.9690621495246887]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[126, 55, 37, 63, 124, 61, 16]</t>
+          <t>[125, 55, 37, 63, 156, 123, 74]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[0.8550234436988831, 0.9730480909347534, 1.0704206228256226, 1.1138153076171875, 1.1355130672454834, 1.1369935274124146, 1.139632225036621]</t>
+          <t>[0.9292263388633728, 1.0104994773864746, 1.138222336769104, 1.1701632738113403, 1.1911569833755493, 1.2203271389007568, 1.2235807180404663]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8649964673847084</v>
+        <v>0.9225283887616631</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2905,7 +2901,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.484247</t>
+          <t>2025-11-12T07:22:53.242747</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2951,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[111, 16, 117, 160, 63, 85, 128]</t>
+          <t>[16, 111, 156, 117, 85, 63, 127]</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2965,24 +2961,24 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[0.2745113968849182, 0.30740076303482056, 0.3631272315979004, 0.3868076205253601, 0.39677804708480835, 0.4322109818458557, 0.4546579122543335]</t>
+          <t>[0.3256034255027771, 0.32647669315338135, 0.43169161677360535, 0.4518955945968628, 0.48287177085876465, 0.4831402599811554, 0.4947105944156647]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>[111, 16, 117, 160, 63, 85, 128]</t>
+          <t>[16, 111, 156, 117, 85, 63, 127]</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[0.2745113968849182, 0.30740076303482056, 0.3631272315979004, 0.3868076205253601, 0.39677804708480835, 0.4322109818458557, 0.4546579122543335]</t>
+          <t>[0.3256034255027771, 0.32647669315338135, 0.43169161677360535, 0.4518955945968628, 0.48287177085876465, 0.4831402599811554, 0.4947105944156647]</t>
         </is>
       </c>
       <c r="U29" t="n">
         <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4144945139202602</v>
+        <v>0.4830059997314791</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2991,7 +2987,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.484247</t>
+          <t>2025-11-12T07:22:53.242747</t>
         </is>
       </c>
     </row>
@@ -3041,34 +3037,34 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[90, 57, 71, 103, 17, 99, 124]</t>
+          <t>[90, 57, 69, 71, 17, 99, 123]</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 1, 1]</t>
+          <t>[1, 1, 0, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.2998863458633423, 0.3359346091747284, 0.4340638518333435, 0.4363320767879486, 0.5034973621368408, 0.5981711745262146, 0.6567560434341431]</t>
+          <t>[0.3078397512435913, 0.3291603624820709, 0.46731218695640564, 0.5667364001274109, 0.5690552592277527, 0.6081991195678711, 0.6721161007881165]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>[90, 57, 71, 99, 124, 37, 110]</t>
+          <t>[90, 57, 71, 99, 123, 110, 37]</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[0.2998863458633423, 0.3359346091747284, 0.4340638518333435, 0.5981711745262146, 0.6567560434341431, 0.7232784032821655, 0.7322577238082886]</t>
+          <t>[0.3078397512435913, 0.3291603624820709, 0.5667364001274109, 0.6081991195678711, 0.6721161007881165, 0.7963089346885681, 0.8715474009513855]</t>
         </is>
       </c>
       <c r="U30" t="n">
         <v>5</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5508342674028873</v>
+        <v>0.5886271749731768</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3077,7 +3073,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.484247</t>
+          <t>2025-11-12T07:22:53.243301</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3123,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[160, 128, 49, 138, 63, 85, 74]</t>
+          <t>[156, 49, 127, 63, 111, 125, 74]</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3137,24 +3133,24 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[0.7024815082550049, 0.7791270613670349, 0.782824695110321, 0.8669902086257935, 0.8682761192321777, 0.8756409883499146, 0.8760532736778259]</t>
+          <t>[0.6921119093894958, 0.7866690754890442, 0.7912662625312805, 0.8496972322463989, 0.8651047945022583, 0.8794010281562805, 0.88278728723526]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>[160, 128, 49, 138, 63, 85, 74]</t>
+          <t>[156, 49, 127, 63, 111, 125, 74]</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[0.7024815082550049, 0.7791270613670349, 0.782824695110321, 0.8669902086257935, 0.8682761192321777, 0.8756409883499146, 0.8760532736778259]</t>
+          <t>[0.6921119093894958, 0.7866690754890442, 0.7912662625312805, 0.8496972322463989, 0.8651047945022583, 0.8794010281562805, 0.88278728723526]</t>
         </is>
       </c>
       <c r="U31" t="n">
         <v>5</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8719585240049815</v>
+        <v>0.8722529102781014</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3163,7 +3159,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.485247</t>
+          <t>2025-11-12T07:22:53.243301</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3209,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[68, 128, 111, 138, 49, 74, 110]</t>
+          <t>[68, 127, 111, 137, 110, 49, 74]</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3223,24 +3219,24 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[0.23407834768295288, 0.2518826425075531, 0.31941407918930054, 0.35915279388427734, 0.37045618891716003, 0.4322109818458557, 0.4433661103248596]</t>
+          <t>[0.24307456612586975, 0.2721707820892334, 0.3576032519340515, 0.38400450348854065, 0.4392389953136444, 0.4584267735481262, 0.48287177085876465]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>[68, 128, 111, 138, 49, 74, 110]</t>
+          <t>[68, 127, 111, 137, 110, 49, 74]</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[0.23407834768295288, 0.2518826425075531, 0.31941407918930054, 0.35915279388427734, 0.37045618891716003, 0.4322109818458557, 0.4433661103248596]</t>
+          <t>[0.24307456612586975, 0.2721707820892334, 0.3576032519340515, 0.38400450348854065, 0.4392389953136444, 0.4584267735481262, 0.48287177085876465]</t>
         </is>
       </c>
       <c r="U32" t="n">
         <v>5</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4013335738709783</v>
+        <v>0.4488328825010381</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3249,7 +3245,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.485247</t>
+          <t>2025-11-12T07:22:53.243810</t>
         </is>
       </c>
     </row>
@@ -3282,14 +3278,14 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K33" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>
@@ -3299,34 +3295,34 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[135, 164, 75, 20, 52, 39, 18]</t>
+          <t>[134, 43, 20, 77, 67, 18, 93]</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[0.41570061445236206, 0.48236414790153503, 0.5884926915168762, 0.6578987836837769, 0.9539618492126465, 1.042965054512024, 1.139807105064392]</t>
+          <t>[0.42311567068099976, 0.5854349136352539, 0.7041640281677246, 1.2230292558670044, 1.2901464700698853, 1.321805715560913, 1.4345275163650513]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>[135, 20, 18, 64, 93, 2, 11]</t>
+          <t>[134, 20, 18, 93, 64, 2, 125]</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[0.41570061445236206, 0.6578987836837769, 1.139807105064392, 1.2516870498657227, 1.3337684869766235, 1.5819833278656006, 1.6632344722747803]</t>
+          <t>[0.42311567068099976, 0.7041640281677246, 1.321805715560913, 1.4345275163650513, 1.5044609308242798, 1.7105435132980347, 1.7833822965621948]</t>
         </is>
       </c>
       <c r="U33" t="n">
         <v>5</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9984634206398195</v>
+        <v>1.305976154716575</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3335,7 +3331,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.485247</t>
+          <t>2025-11-12T07:22:53.243856</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3381,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[57, 79, 99, 71, 110, 103, 17]</t>
+          <t>[57, 79, 99, 71, 110, 69, 17]</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3395,24 +3391,24 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.22162799537181854, 0.2998863458633423, 0.32982856035232544, 0.40712061524391174, 0.5196176767349243, 0.5489755272865295, 0.5727618932723999]</t>
+          <t>[0.2648962140083313, 0.3078397512435913, 0.33964914083480835, 0.4762190580368042, 0.5851075649261475, 0.5878771543502808, 0.6303510069847107]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>[57, 79, 99, 71, 110, 138, 49]</t>
+          <t>[57, 79, 99, 71, 110, 49, 137]</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[0.22162799537181854, 0.2998863458633423, 0.32982856035232544, 0.40712061524391174, 0.5196176767349243, 0.6713021397590637, 0.6792292594909668]</t>
+          <t>[0.2648962140083313, 0.3078397512435913, 0.33964914083480835, 0.4762190580368042, 0.5851075649261475, 0.6484301090240479, 0.6915300488471985]</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>0.534296586047466</v>
+        <v>0.5864923452139391</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3421,7 +3417,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.485247</t>
+          <t>2025-11-12T07:22:53.243856</t>
         </is>
       </c>
     </row>
@@ -3471,34 +3467,34 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[2, 18, 126, 33, 39, 50, 75]</t>
+          <t>[2, 18, 125, 135, 76, 77, 143]</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 1, 0]</t>
+          <t>[1, 1, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.5071632266044617, 0.6627287864685059, 0.7265123724937439, 0.7333554625511169, 0.9368272423744202, 0.9428142309188843, 0.968704879283905]</t>
+          <t>[0.5625253915786743, 0.6616442203521729, 0.716044545173645, 0.7597164511680603, 0.8705536127090454, 1.0153090953826904, 1.0182502269744873]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>[2, 18, 126, 50, 20, 144, 135]</t>
+          <t>[2, 18, 125, 143, 50, 20, 82]</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[0.5071632266044617, 0.6627287864685059, 0.7265123724937439, 0.9428142309188843, 0.993069589138031, 1.0671149492263794, 1.1467154026031494]</t>
+          <t>[0.5625253915786743, 0.6616442203521729, 0.716044545173645, 1.0182502269744873, 1.0313117504119873, 1.092565894126892, 1.2163811922073364]</t>
         </is>
       </c>
       <c r="U35" t="n">
         <v>5</v>
       </c>
       <c r="V35" t="n">
-        <v>0.9398207342871636</v>
+        <v>0.942931366257372</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3507,7 +3503,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.485247</t>
+          <t>2025-11-12T07:22:53.244407</t>
         </is>
       </c>
     </row>
@@ -3557,34 +3553,34 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[102, 139, 17, 143, 76, 71, 132]</t>
+          <t>[15, 142, 9, 40, 71, 17, 165]</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[0.2907591462135315, 0.36131569743156433, 0.5027523040771484, 0.5471352934837341, 0.5626423954963684, 0.5669599771499634, 0.6795096397399902]</t>
+          <t>[0.3629477918148041, 0.4464878439903259, 0.5542144179344177, 0.5605212450027466, 0.6567456126213074, 0.676491916179657, 0.7788563966751099]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>[71, 37, 124, 90, 57, 110, 79]</t>
+          <t>[71, 37, 16, 63, 123, 110, 90]</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[0.5669599771499634, 0.7496925592422485, 0.7641997933387756, 0.8085055947303772, 0.8183553218841553, 0.8394302129745483, 0.8566558361053467]</t>
+          <t>[0.6567456126213074, 0.864593505859375, 0.8902422189712524, 0.8947917222976685, 0.9094892740249634, 0.912184476852417, 0.9445837140083313]</t>
         </is>
       </c>
       <c r="U36" t="n">
         <v>5</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5648011751864046</v>
+        <v>0.6666187500595644</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3593,7 +3589,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.485247</t>
+          <t>2025-11-12T07:22:53.244982</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3639,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[90, 57, 138, 110, 49, 79, 71]</t>
+          <t>[90, 137, 57, 49, 79, 110, 71]</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3653,24 +3649,24 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.32982856035232544, 0.4770033061504364, 0.4832967221736908, 0.5505309700965881, 0.5646175146102905, 0.5981711745262146, 0.6512867212295532]</t>
+          <t>[0.33964914083480835, 0.5274621844291687, 0.53846275806427, 0.5779021978378296, 0.6081991195678711, 0.6306753158569336, 0.6779243350028992]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>[90, 57, 138, 110, 49, 79, 71]</t>
+          <t>[90, 137, 57, 49, 79, 110, 71]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[0.32982856035232544, 0.4770033061504364, 0.4832967221736908, 0.5505309700965881, 0.5646175146102905, 0.5981711745262146, 0.6512867212295532]</t>
+          <t>[0.33964914083480835, 0.5274621844291687, 0.53846275806427, 0.5779021978378296, 0.6081991195678711, 0.6306753158569336, 0.6779243350028992]</t>
         </is>
       </c>
       <c r="U37" t="n">
         <v>5</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5813943635597796</v>
+        <v>0.6194372159241528</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3679,7 +3675,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.485247</t>
+          <t>2025-11-12T07:22:53.245495</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3725,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[24, 26, 13, 32, 113, 10, 53]</t>
+          <t>[24, 13, 26, 10, 32, 53, 113]</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3739,24 +3735,24 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[1.1462832689285278, 1.37345290184021, 1.3908840417861938, 1.4242830276489258, 1.4346752166748047, 1.4521453380584717, 1.596053957939148]</t>
+          <t>[1.3292838335037231, 1.4463818073272705, 1.4604705572128296, 1.5057982206344604, 1.5469945669174194, 1.5880179405212402, 1.6002311706542969]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>[24, 26, 13, 32, 113, 10, 53]</t>
+          <t>[24, 13, 26, 10, 32, 53, 113]</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[1.1462832689285278, 1.37345290184021, 1.3908840417861938, 1.4242830276489258, 1.4346752166748047, 1.4521453380584717, 1.596053957939148]</t>
+          <t>[1.3292838335037231, 1.4463818073272705, 1.4604705572128296, 1.5057982206344604, 1.5469945669174194, 1.5880179405212402, 1.6002311706542969]</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.443410296170278</v>
+        <v>1.567506285163991</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3765,7 +3761,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.485247</t>
+          <t>2025-11-12T07:22:53.245539</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3811,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[111, 117, 63, 68, 49, 16, 138]</t>
+          <t>[111, 117, 63, 68, 49, 127, 85]</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3825,24 +3821,24 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[0.27714383602142334, 0.3162791132926941, 0.3534441888332367, 0.35677751898765564, 0.4037454128265381, 0.44089385867118835, 0.4411514699459076]</t>
+          <t>[0.2747569680213928, 0.35930612683296204, 0.4099559187889099, 0.4107741117477417, 0.4206562042236328, 0.4358758330345154, 0.4392389953136444]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>[111, 117, 63, 68, 49, 16, 138]</t>
+          <t>[111, 117, 63, 68, 49, 127, 85]</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[0.27714383602142334, 0.3162791132926941, 0.3534441888332367, 0.35677751898765564, 0.4037454128265381, 0.44089385867118835, 0.4411514699459076]</t>
+          <t>[0.2747569680213928, 0.35930612683296204, 0.4099559187889099, 0.4107741117477417, 0.4206562042236328, 0.4358758330345154, 0.4392389953136444]</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4223196336363977</v>
+        <v>0.428266027240047</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3851,7 +3847,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.485247</t>
+          <t>2025-11-12T07:22:53.246092</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3897,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[63, 74, 110, 117, 16, 85, 49]</t>
+          <t>[110, 63, 117, 74, 16, 85, 127]</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3911,24 +3907,24 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.26537278294563293, 0.2745113968849182, 0.27714383602142334, 0.2821160852909088, 0.31928902864456177, 0.31941407918930054, 0.34273430705070496]</t>
+          <t>[0.2747569680213928, 0.3099047541618347, 0.3248119056224823, 0.32647669315338135, 0.3461134135723114, 0.3576032519340515, 0.36764371395111084]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>[63, 74, 110, 117, 16, 85, 49]</t>
+          <t>[110, 63, 117, 74, 16, 85, 127]</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[0.26537278294563293, 0.2745113968849182, 0.27714383602142334, 0.2821160852909088, 0.31928902864456177, 0.31941407918930054, 0.34273430705070496]</t>
+          <t>[0.2747569680213928, 0.3099047541618347, 0.3248119056224823, 0.32647669315338135, 0.3461134135723114, 0.3576032519340515, 0.36764371395111084]</t>
         </is>
       </c>
       <c r="U40" t="n">
         <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3193515556102143</v>
+        <v>0.3518583448021626</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3937,7 +3933,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.485247</t>
+          <t>2025-11-12T07:22:53.246092</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
@@ -3987,7 +3983,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[106, 53, 167, 24, 32, 1, 123]</t>
+          <t>[106, 53, 163, 24, 1, 122, 32]</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3997,24 +3993,24 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[1.4346752166748047, 1.765783667564392, 1.8253971338272095, 1.8384422063827515, 1.9259189367294312, 1.9320298433303833, 1.9320298433303833]</t>
+          <t>[1.6002311706542969, 1.8835901021957397, 2.001023769378662, 2.094367742538452, 2.1351096630096436, 2.1351096630096436, 2.1565535068511963]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>[106, 53, 167, 24, 32, 123, 1]</t>
+          <t>[106, 53, 163, 24, 122, 1, 32]</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[1.4346752166748047, 1.765783667564392, 1.8253971338272095, 1.8384422063827515, 1.9259189367294312, 1.9320298433303833, 1.9320298433303833]</t>
+          <t>[1.6002311706542969, 1.8835901021957397, 2.001023769378662, 2.094367742538452, 2.1351096630096436, 2.1351096630096436, 2.1565535068511963]</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V41" t="n">
-        <v>1.928974431555331</v>
+        <v>2.135109552861643</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -4023,7 +4019,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.485247</t>
+          <t>2025-11-12T07:22:53.246646</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4069,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[111, 110, 74, 63, 16, 49, 68]</t>
+          <t>[111, 110, 63, 74, 49, 16, 37]</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4083,24 +4079,24 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.2821160852909088, 0.3162791132926941, 0.3631272315979004, 0.37331050634384155, 0.4304656386375427, 0.45551687479019165, 0.45675554871559143]</t>
+          <t>[0.3248119056224823, 0.35930612683296204, 0.42900988459587097, 0.4518955945968628, 0.47806188464164734, 0.5141596794128418, 0.516476035118103]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>[111, 110, 74, 63, 16, 49, 68]</t>
+          <t>[111, 110, 63, 74, 49, 16, 37]</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[0.2821160852909088, 0.3162791132926941, 0.3631272315979004, 0.37331050634384155, 0.4304656386375427, 0.45551687479019165, 0.45675554871559143]</t>
+          <t>[0.3248119056224823, 0.35930612683296204, 0.42900988459587097, 0.4518955945968628, 0.47806188464164734, 0.5141596794128418, 0.516476035118103]</t>
         </is>
       </c>
       <c r="U42" t="n">
         <v>5</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4429912674299687</v>
+        <v>0.4961108020051864</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -4109,7 +4105,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.486247</t>
+          <t>2025-11-12T07:22:53.247198</t>
         </is>
       </c>
     </row>
@@ -4159,34 +4155,34 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[150, 121, 7, 137, 31, 6, 142]</t>
+          <t>[146, 136, 58, 121, 70, 141, 132]</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[0.33845314383506775, 0.5519679188728333, 0.5712586641311646, 0.5971319079399109, 0.8188854455947876, 0.8335397839546204, 0.858685314655304]</t>
+          <t>[0.3732612431049347, 0.5483347177505493, 0.5994579792022705, 0.6728370189666748, 0.9534091353416443, 0.9893097281455994, 1.1328985691070557]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>[150, 137, 142, 48, 55, 124, 37]</t>
+          <t>[146, 136, 141, 48, 55, 37, 30]</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[0.33845314383506775, 0.5971319079399109, 0.858685314655304, 1.0113223791122437, 1.104374885559082, 1.175501823425293, 1.2120747566223145]</t>
+          <t>[0.3732612431049347, 0.5483347177505493, 0.9893097281455994, 1.2097294330596924, 1.2158509492874146, 1.275368094444275, 1.3452484607696533]</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>5</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8262126249408769</v>
+        <v>0.9713594235765153</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4195,7 +4191,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.486247</t>
+          <t>2025-11-12T07:22:53.247198</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4202,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -4228,14 +4224,14 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K44" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N44" t="b">
         <v>1</v>
@@ -4245,34 +4241,34 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[123, 168, 167, 21, 161, 3, 53]</t>
+          <t>[1, 167, 163, 157, 3, 32, 53]</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 1, 1]</t>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[0.0, 0.4420248568058014, 0.8503342866897583, 0.8820913434028625, 1.058899164199829, 1.4505605697631836, 1.4763151407241821]</t>
+          <t>[0.0, 0.48484399914741516, 0.9375274181365967, 1.210782527923584, 1.4197405576705933, 1.4914908409118652, 1.5236177444458008]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>[123, 167, 161, 3, 53, 32, 24]</t>
+          <t>[122, 163, 157, 3, 32, 53, 24]</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[0.0, 0.8503342866897583, 1.058899164199829, 1.4505605697631836, 1.4763151407241821, 1.4821938276290894, 1.6584436893463135]</t>
+          <t>[0.0, 0.9375274181365967, 1.210782527923584, 1.4197405576705933, 1.4914908409118652, 1.5236177444458008, 1.657482385635376]</t>
         </is>
       </c>
       <c r="U44" t="n">
         <v>5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.254729898305918</v>
+        <v>1.455615620282754</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4281,7 +4277,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.486247</t>
+          <t>2025-11-12T07:22:53.247751</t>
         </is>
       </c>
     </row>
@@ -4292,7 +4288,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -4331,34 +4327,34 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[55, 103, 37, 31, 83, 6, 71]</t>
+          <t>[69, 55, 70, 37, 132, 71, 75]</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 1]</t>
+          <t>[0, 1, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[0.33407479524612427, 0.34904465079307556, 0.3978515863418579, 0.4106251895427704, 0.4616753160953522, 0.5046165585517883, 0.5412389039993286]</t>
+          <t>[0.3732745945453644, 0.4077055752277374, 0.47033438086509705, 0.5126516819000244, 0.5561764240264893, 0.5980291366577148, 0.6334537863731384]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>[55, 37, 71, 57, 79, 110, 117]</t>
+          <t>[55, 37, 71, 57, 79, 117, 110]</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[0.33407479524612427, 0.3978515863418579, 0.5412389039993286, 0.6373316049575806, 0.6567560434341431, 0.658723771572113, 0.670596718788147]</t>
+          <t>[0.4077055752277374, 0.5126516819000244, 0.5980291366577148, 0.6555585861206055, 0.6721161007881165, 0.6756170392036438, 0.7112769484519958]</t>
         </is>
       </c>
       <c r="U45" t="n">
         <v>5</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4831459597857863</v>
+        <v>0.5771027589527425</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4367,7 +4363,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.486247</t>
+          <t>2025-11-12T07:22:53.248303</t>
         </is>
       </c>
     </row>
@@ -4378,7 +4374,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -4417,34 +4413,34 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[2, 33, 144, 93, 69, 61, 29]</t>
+          <t>[2, 143, 135, 93, 82, 72, 140]</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 0, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[0.5966512560844421, 0.6207886338233948, 0.6502023935317993, 0.7265123724937439, 0.773938775062561, 0.7968783378601074, 0.8528220653533936]</t>
+          <t>[0.6119475960731506, 0.6453480124473572, 0.7034977674484253, 0.716044545173645, 0.8794010281562805, 0.9193761944770813, 0.9198389649391174]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>[2, 144, 93, 61, 73, 50, 82]</t>
+          <t>[2, 143, 93, 82, 73, 61, 50]</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[0.5966512560844421, 0.6502023935317993, 0.7265123724937439, 0.7968783378601074, 0.8550234436988831, 0.91129469871521, 0.9133409261703491]</t>
+          <t>[0.6119475960731506, 0.6453480124473572, 0.716044545173645, 0.8794010281562805, 0.9292263388633728, 0.9638957381248474, 1.0131018161773682]</t>
         </is>
       </c>
       <c r="U46" t="n">
         <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>0.785408603988754</v>
+        <v>0.8993885986922474</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4453,7 +4449,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.486247</t>
+          <t>2025-11-12T07:22:53.248303</t>
         </is>
       </c>
     </row>
@@ -4464,7 +4460,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -4503,7 +4499,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[138, 49, 85, 68, 111, 63, 110]</t>
+          <t>[137, 85, 49, 111, 68, 110, 63]</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4513,24 +4509,24 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.24105988442897797, 0.24486501514911652, 0.2518826425075531, 0.3419783413410187, 0.3526051342487335, 0.4334620237350464, 0.4467275142669678]</t>
+          <t>[0.25396960973739624, 0.2721707820892334, 0.32066431641578674, 0.36764371395111084, 0.3812859058380127, 0.4358758330345154, 0.4874739944934845]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>[138, 49, 85, 68, 111, 63, 110]</t>
+          <t>[137, 85, 49, 111, 68, 110, 63]</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[0.24105988442897797, 0.24486501514911652, 0.2518826425075531, 0.3419783413410187, 0.3526051342487335, 0.4334620237350464, 0.4467275142669678]</t>
+          <t>[0.25396960973739624, 0.2721707820892334, 0.32066431641578674, 0.36764371395111084, 0.3812859058380127, 0.4358758330345154, 0.4874739944934845]</t>
         </is>
       </c>
       <c r="U47" t="n">
         <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3930335979690299</v>
+        <v>0.4085808881939881</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4539,7 +4535,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.486247</t>
+          <t>2025-11-12T07:22:53.248863</t>
         </is>
       </c>
     </row>
@@ -4550,13 +4546,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4572,51 +4568,51 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[48, 32, 21, 161, 137, 120, 3]</t>
+          <t>[48, 157, 32, 136, 120, 24, 163]</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[1.0015952587127686, 1.238690733909607, 1.2559460401535034, 1.2840633392333984, 1.2904675006866455, 1.3656710386276245, 1.401395559310913]</t>
+          <t>[1.076499581336975, 1.3025766611099243, 1.4632848501205444, 1.490759253501892, 1.6197394132614136, 1.6255531311035156, 1.652222752571106]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>[48, 32, 161, 137, 120, 3, 150]</t>
+          <t>[48, 157, 32, 136, 120, 24, 163]</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[1.0015952587127686, 1.238690733909607, 1.2840633392333984, 1.2904675006866455, 1.3656710386276245, 1.401395559310913, 1.4060472249984741]</t>
+          <t>[1.076499581336975, 1.3025766611099243, 1.4632848501205444, 1.490759253501892, 1.6197394132614136, 1.6255531311035156, 1.652222752571106]</t>
         </is>
       </c>
       <c r="U48" t="n">
         <v>5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.328069298728815</v>
+        <v>1.622646245406396</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4625,7 +4621,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.486247</t>
+          <t>2025-11-12T07:22:53.248863</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4632,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -4675,34 +4671,34 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[20, 86, 164, 75, 39, 18, 93]</t>
+          <t>[86, 20, 43, 77, 93, 18, 67]</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 1, 1]</t>
+          <t>[1, 1, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[0.3977104723453522, 0.41570061445236206, 0.5201490521430969, 0.6098141074180603, 0.8260360956192017, 1.0953865051269531, 1.1467154026031494]</t>
+          <t>[0.42311567068099976, 0.4291931390762329, 0.6260313987731934, 1.0338630676269531, 1.2624551057815552, 1.2739721536636353, 1.4244818687438965]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>[20, 86, 18, 93, 64, 2, 11]</t>
+          <t>[86, 20, 93, 18, 2, 64, 125]</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>[0.3977104723453522, 0.41570061445236206, 1.0953865051269531, 1.1467154026031494, 1.3304789066314697, 1.4060176610946655, 1.4199833869934082]</t>
+          <t>[0.42311567068099976, 0.4291931390762329, 1.2624551057815552, 1.2739721536636353, 1.5523948669433594, 1.5550521612167358, 1.6520624160766602]</t>
         </is>
       </c>
       <c r="U49" t="n">
         <v>5</v>
       </c>
       <c r="V49" t="n">
-        <v>0.9607112981001729</v>
+        <v>1.268213627116583</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -4711,7 +4707,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.486247</t>
+          <t>2025-11-12T07:22:53.249428</t>
         </is>
       </c>
     </row>
@@ -4722,7 +4718,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -4761,47 +4757,43 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[142, 120, 150, 7, 48, 121, 6]</t>
+          <t>[120, 146, 141, 121, 58, 48, 70]</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1, 0, 0]</t>
+          <t>[1, 1, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[0.5809686779975891, 0.5971319079399109, 0.6238307356834412, 0.8399618864059448, 0.8904705047607422, 1.004456877708435, 1.0819703340530396]</t>
+          <t>[0.5483347177505493, 0.5950375199317932, 0.6821667551994324, 0.8649263978004456, 0.9897977709770203, 1.0836451053619385, 1.1551886796951294]</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>[142, 120, 150, 48, 130, 55, 124]</t>
+          <t>[120, 146, 141, 48, 55, 129, 123]</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>[0.5809686779975891, 0.5971319079399109, 0.6238307356834412, 0.8904705047607422, 1.2904675006866455, 1.4682962894439697, 1.4901363849639893]</t>
+          <t>[0.5483347177505493, 0.5950375199317932, 0.6821667551994324, 1.0836451053619385, 1.4556727409362793, 1.490759253501892, 1.5269689559936523]</t>
         </is>
       </c>
       <c r="U50" t="n">
         <v>5</v>
       </c>
       <c r="V50" t="n">
-        <v>0.9474636664537425</v>
+        <v>1.036721463404266</v>
       </c>
       <c r="W50" t="n">
-        <v>1</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0.4041168988591605</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.486247</t>
+          <t>2025-11-12T07:22:53.249993</t>
         </is>
       </c>
     </row>
@@ -4812,7 +4804,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -4851,7 +4843,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[49, 128, 85, 68, 110, 111, 99]</t>
+          <t>[127, 49, 85, 110, 68, 111, 99]</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -4861,24 +4853,24 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[0.22816817462444305, 0.24105988442897797, 0.35915279388427734, 0.40499499440193176, 0.4411514699459076, 0.4502352178096771, 0.4832967221736908]</t>
+          <t>[0.25396960973739624, 0.285773366689682, 0.38400450348854065, 0.4596148133277893, 0.46767961978912354, 0.47871172428131104, 0.5274621844291687]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>[49, 128, 85, 68, 110, 111, 99]</t>
+          <t>[127, 49, 85, 110, 68, 111, 99]</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[0.22816817462444305, 0.24105988442897797, 0.35915279388427734, 0.40499499440193176, 0.4411514699459076, 0.4502352178096771, 0.4832967221736908]</t>
+          <t>[0.25396960973739624, 0.285773366689682, 0.38400450348854065, 0.4596148133277893, 0.46767961978912354, 0.47871172428131104, 0.5274621844291687]</t>
         </is>
       </c>
       <c r="U51" t="n">
         <v>5</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4456933486343732</v>
+        <v>0.4731956726168777</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -4887,7 +4879,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.486247</t>
+          <t>2025-11-12T07:22:53.249993</t>
         </is>
       </c>
     </row>
@@ -4898,7 +4890,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -4920,14 +4912,14 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K52" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N52" t="b">
         <v>1</v>
@@ -4937,34 +4929,34 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[137, 150, 120, 7, 6, 48, 83]</t>
+          <t>[136, 146, 120, 70, 121, 58, 132]</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 1, 0]</t>
+          <t>[1, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[0.5809686779975891, 0.7838481068611145, 0.858685314655304, 0.9159262180328369, 0.9295939803123474, 0.9758562445640564, 1.0941393375396729]</t>
+          <t>[0.6821667551994324, 0.912260890007019, 0.9893097281455994, 1.0079094171524048, 1.010299801826477, 1.2035614252090454, 1.25728178024292]</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>[137, 150, 120, 48, 55, 124, 37]</t>
+          <t>[136, 146, 120, 55, 123, 48, 37]</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>[0.5809686779975891, 0.7838481068611145, 0.858685314655304, 0.9758562445640564, 1.3248116970062256, 1.3398164510726929, 1.4458744525909424]</t>
+          <t>[0.6821667551994324, 0.912260890007019, 0.9893097281455994, 1.2583085298538208, 1.2837227582931519, 1.308249831199646, 1.408244013786316]</t>
         </is>
       </c>
       <c r="U52" t="n">
         <v>5</v>
       </c>
       <c r="V52" t="n">
-        <v>0.9527251019391398</v>
+        <v>1.106930679195617</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -4973,7 +4965,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.487247</t>
+          <t>2025-11-12T07:22:53.253446</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4976,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -5006,14 +4998,14 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K53" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N53" t="b">
         <v>1</v>
@@ -5023,43 +5015,47 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[126, 131, 33, 36, 50, 77, 61]</t>
+          <t>[125, 135, 6, 76, 103, 36, 50]</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[0.6502023935317993, 0.6648515462875366, 0.6818861365318298, 0.8169336915016174, 0.8207784295082092, 0.8275083303451538, 0.9135709404945374]</t>
+          <t>[0.6453480124473572, 0.6670486927032471, 0.7187033891677856, 0.8061776757240295, 0.8742650747299194, 0.9452868700027466, 0.9594192504882812]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>[126, 50, 61, 93, 2, 71, 79]</t>
+          <t>[125, 50, 93, 2, 61, 71, 123]</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>[0.6502023935317993, 0.8207784295082092, 0.9135709404945374, 1.0671149492263794, 1.0991559028625488, 1.1585712432861328, 1.1806111335754395]</t>
+          <t>[0.6453480124473572, 0.9594192504882812, 1.0182502269744873, 1.07241690158844, 1.1271377801895142, 1.143081545829773, 1.166255235671997]</t>
         </is>
       </c>
       <c r="U53" t="n">
         <v>5</v>
       </c>
       <c r="V53" t="n">
-        <v>0.8241433766994429</v>
+        <v>0.9097759861194641</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.4041168988591605</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>6</v>
+      </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.487247</t>
+          <t>2025-11-12T07:22:53.253969</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5066,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -5109,7 +5105,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[120, 137, 7, 121, 31, 142, 6]</t>
+          <t>[120, 136, 58, 121, 70, 141, 132]</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5119,37 +5115,33 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>[0.33845314383506775, 0.6238307356834412, 0.7188007235527039, 0.735078752040863, 0.7749160528182983, 0.7838481068611145, 0.7853907942771912]</t>
+          <t>[0.3732612431049347, 0.5950375199317932, 0.8128604292869568, 0.8290613293647766, 0.8721975684165955, 0.912260890007019, 1.003827452659607]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>[120, 137, 142, 48, 55, 124, 37]</t>
+          <t>[120, 136, 141, 55, 37, 48, 30]</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>[0.33845314383506775, 0.6238307356834412, 0.7838481068611145, 0.9498926997184753, 1.050995111465454, 1.0834901332855225, 1.107613205909729]</t>
+          <t>[0.3732612431049347, 0.5950375199317932, 0.912260890007019, 1.1423676013946533, 1.149321436882019, 1.1855159997940063, 1.209291934967041]</t>
         </is>
       </c>
       <c r="U54" t="n">
         <v>5</v>
       </c>
       <c r="V54" t="n">
-        <v>0.7793820953596646</v>
+        <v>0.8922292285550151</v>
       </c>
       <c r="W54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X54" t="n">
-        <v>0.5901428612819832</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.487247</t>
+          <t>2025-11-12T07:22:53.254434</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5152,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -5199,7 +5191,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>[74, 111, 63, 128, 49, 117, 85]</t>
+          <t>[74, 63, 111, 49, 127, 117, 16]</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5209,24 +5201,24 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[0.3868076205253601, 0.48461422324180603, 0.4862489402294159, 0.5136907696723938, 0.5301670432090759, 0.5777832865715027, 0.5901980400085449]</t>
+          <t>[0.43169161677360535, 0.48099973797798157, 0.499126136302948, 0.5701435804367065, 0.5753060579299927, 0.5882967710494995, 0.6560044288635254]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>[74, 111, 63, 128, 49, 117, 85]</t>
+          <t>[74, 63, 111, 49, 127, 117, 16]</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>[0.3868076205253601, 0.48461422324180603, 0.4862489402294159, 0.5136907696723938, 0.5301670432090759, 0.5777832865715027, 0.5901980400085449]</t>
+          <t>[0.43169161677360535, 0.48099973797798157, 0.499126136302948, 0.5701435804367065, 0.5753060579299927, 0.5882967710494995, 0.6560044288635254]</t>
         </is>
       </c>
       <c r="U55" t="n">
         <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>0.553975155318016</v>
+        <v>0.5818014269493239</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -5235,7 +5227,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.487247</t>
+          <t>2025-11-12T07:22:53.255040</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5238,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -5268,14 +5260,14 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K56" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N56" t="b">
         <v>1</v>
@@ -5285,34 +5277,34 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[21, 167, 168, 1, 123, 130, 32]</t>
+          <t>[163, 167, 122, 1, 129, 32, 24]</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1, 1, 1, 1]</t>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[0.4618493616580963, 0.5588918924331665, 1.0266729593276978, 1.058899164199829, 1.058899164199829, 1.2840633392333984, 1.5850708484649658]</t>
+          <t>[0.7537067532539368, 1.1573588848114014, 1.210782527923584, 1.210782527923584, 1.3025766611099243, 1.5372151136398315, 1.6025569438934326]</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>[167, 123, 1, 130, 32, 48, 24]</t>
+          <t>[163, 122, 1, 129, 32, 24, 48]</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>[0.5588918924331665, 1.058899164199829, 1.058899164199829, 1.2840633392333984, 1.5850708484649658, 1.6029987335205078, 1.6661120653152466]</t>
+          <t>[0.7537067532539368, 1.210782527923584, 1.210782527923584, 1.3025766611099243, 1.5372151136398315, 1.6025569438934326, 1.7239761352539062]</t>
         </is>
       </c>
       <c r="U56" t="n">
         <v>5</v>
       </c>
       <c r="V56" t="n">
-        <v>1.1714812562562</v>
+        <v>1.419895926803763</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -5321,7 +5313,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.487247</t>
+          <t>2025-11-12T07:22:53.255599</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5324,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -5354,14 +5346,14 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K57" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N57" t="b">
         <v>1</v>
@@ -5371,43 +5363,47 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[21, 161, 168, 123, 1, 130, 53]</t>
+          <t>[157, 167, 122, 1, 3, 32, 53]</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1, 1, 1, 1]</t>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[0.46296268701553345, 0.5588918924331665, 0.8172926902770996, 0.8503342866897583, 0.8503342866897583, 1.4101918935775757, 1.4607783555984497]</t>
+          <t>[0.7537067532539368, 0.8827974796295166, 0.9375274181365967, 0.9375274181365967, 1.3964189291000366, 1.4274630546569824, 1.4423130750656128]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>[161, 1, 123, 130, 53, 32, 3]</t>
+          <t>[157, 1, 122, 3, 32, 53, 24]</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>[0.5588918924331665, 0.8503342866897583, 0.8503342866897583, 1.4101918935775757, 1.4607783555984497, 1.4623284339904785, 1.4730157852172852]</t>
+          <t>[0.7537067532539368, 0.9375274181365967, 0.9375274181365967, 1.3964189291000366, 1.4274630546569824, 1.4423130750656128, 1.5444222688674927]</t>
         </is>
       </c>
       <c r="U57" t="n">
         <v>5</v>
       </c>
       <c r="V57" t="n">
-        <v>1.130263068137052</v>
+        <v>1.411941033700164</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.5901428612819832</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1</v>
+      </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.487247</t>
+          <t>2025-11-12T07:22:53.256127</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5420,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5440,64 +5436,60 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[121, 120, 150, 6, 31, 137, 84]</t>
+          <t>[76, 50, 155, 10, 13, 78, 26]</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.5712586641311646, 0.7188007235527039, 0.8161059021949768, 0.8208655714988708, 0.8399618864059448, 0.8525661826133728]</t>
+          <t>[1.5519968271255493, 1.6356598138809204, 1.6394151449203491, 1.7287124395370483, 1.7653979063034058, 1.7666444778442383, 1.7869830131530762]</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>[121, 45, 139, 9, 102, 58, 143]</t>
+          <t>[102, 84, 149, 67, 167, 9, 15]</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.964373767375946, 1.126319169998169, 1.2196450233459473, 1.2241731882095337, 1.4703971147537231, 1.557084560394287]</t>
+          <t>[2.499774217605591, 2.647575616836548, 2.873223066329956, 2.904775619506836, 2.9328017234802246, 3.110893964767456, 3.119560480117798]</t>
         </is>
       </c>
       <c r="U58" t="n">
         <v>5</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8304137197641503</v>
+        <v>1.766021166348298</v>
       </c>
       <c r="W58" t="n">
-        <v>3</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0.4455870325083883</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.584717</t>
+          <t>2025-11-12T07:22:53.552252</t>
         </is>
       </c>
     </row>
@@ -5547,7 +5539,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>[76, 16, 74, 37, 111, 63, 55]</t>
+          <t>[40, 63, 110, 97, 111, 16, 71]</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -5557,24 +5549,24 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>[0.29108816385269165, 0.3007749617099762, 0.5765426754951477, 0.5837634801864624, 0.60104900598526, 0.6279987692832947, 0.6349945664405823]</t>
+          <t>[0.402721107006073, 0.42432305216789246, 0.5533663034439087, 0.5542144179344177, 0.5740547180175781, 0.5878986120223999, 0.5945829749107361]</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>[143, 139, 102, 153, 121, 7, 58]</t>
+          <t>[142, 165, 15, 159, 84, 58, 121]</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>[0.639224112033844, 0.7289791107177734, 0.8478673100471497, 0.9712804555892944, 1.0848945379257202, 1.2196450233459473, 1.3480218648910522]</t>
+          <t>[0.6595668792724609, 0.6770656108856201, 0.6839199662208557, 0.9870123863220215, 1.2701534032821655, 1.5826369524002075, 1.5920535326004028]</t>
         </is>
       </c>
       <c r="U59" t="n">
         <v>5</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6145239107281864</v>
+        <v>0.580976693295874</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
@@ -5583,7 +5575,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.584717</t>
+          <t>2025-11-12T07:22:53.553251</t>
         </is>
       </c>
     </row>
@@ -5600,7 +5592,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5616,60 +5608,64 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K60" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[50, 159, 10, 13, 26, 115, 101]</t>
+          <t>[142, 97, 17, 71, 40, 9, 123]</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[1.5119760036468506, 1.5182515382766724, 1.5354762077331543, 1.5763767957687378, 1.6015644073486328, 1.645581841468811, 1.6571449041366577]</t>
+          <t>[0.3143204152584076, 0.3629477918148041, 0.39077892899513245, 0.5496227741241455, 0.6686309576034546, 0.6839199662208557, 0.7075404524803162]</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>[163, 169, 58, 45, 168, 102, 143]</t>
+          <t>[142, 9, 165, 84, 121, 159, 58]</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>[2.4762635231018066, 2.5544352531433105, 2.66167950630188, 2.662851095199585, 2.9099297523498535, 2.9838945865631104, 3.0432541370391846]</t>
+          <t>[0.3143204152584076, 0.6839199662208557, 0.8948940634727478, 1.270548701286316, 1.3683058023452759, 1.4321900606155396, 1.5261261463165283]</t>
         </is>
       </c>
       <c r="U60" t="n">
         <v>5</v>
       </c>
       <c r="V60" t="n">
-        <v>1.62357313323996</v>
+        <v>0.6762754645114269</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
-      </c>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.4661796049705298</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>71</v>
+      </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.584717</t>
+          <t>2025-11-12T07:22:53.553251</t>
         </is>
       </c>
     </row>
@@ -5680,7 +5676,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C61" t="n">
         <v>3</v>
@@ -5702,14 +5698,14 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K61" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N61" t="b">
         <v>1</v>
@@ -5719,47 +5715,47 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>[161, 167, 168, 1, 123, 130, 48]</t>
+          <t>[121, 120, 146, 70, 55, 136, 149]</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[0.4618493616580963, 0.46296268701553345, 0.7553806304931641, 0.8820913434028625, 0.8820913434028625, 1.2559460401535034, 1.4534846544265747]</t>
+          <t>[0.4039050042629242, 0.5994579792022705, 0.8128604292869568, 0.9301779866218567, 0.9707828760147095, 0.9897977709770203, 1.0060019493103027]</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>[168, 58, 7, 121, 45, 102, 139]</t>
+          <t>[121, 149, 165, 142, 15, 9, 84]</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>[0.7553806304931641, 2.353519916534424, 2.4172964096069336, 2.481671094894409, 2.665560245513916, 2.956145763397217, 3.033751964569092]</t>
+          <t>[0.4039050042629242, 1.0060019493103027, 1.1279429197311401, 1.3966552019119263, 1.5261261463165283, 1.5826369524002075, 1.7087055444717407]</t>
         </is>
       </c>
       <c r="U61" t="n">
         <v>5</v>
       </c>
       <c r="V61" t="n">
-        <v>1.069018702257272</v>
+        <v>0.9802903385824179</v>
       </c>
       <c r="W61" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X61" t="n">
-        <v>0.5173502331327696</v>
+        <v>0.5829919351087561</v>
       </c>
       <c r="Y61" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.584717</t>
+          <t>2025-11-12T07:22:53.553251</t>
         </is>
       </c>
     </row>
@@ -5770,13 +5766,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C62" t="n">
         <v>3</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5792,64 +5788,60 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="N62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="b">
         <v>1</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[77, 107, 7, 121, 29, 120, 36]</t>
+          <t>[43, 36, 72, 73, 140, 86, 103]</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>[0.9164473414421082, 0.9198511242866516, 0.964373767375946, 1.0153549909591675, 1.1352434158325195, 1.147658109664917, 1.209598422050476]</t>
+          <t>[0.9282412528991699, 1.0279396772384644, 1.0952517986297607, 1.1150379180908203, 1.1693755388259888, 1.2901464700698853, 1.304693579673767]</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>[7, 121, 169, 139, 9, 102, 58]</t>
+          <t>[149, 142, 121, 58, 165, 15, 9]</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>[0.964373767375946, 1.0153549909591675, 1.3090776205062866, 1.624017596244812, 1.6671695709228516, 1.7274311780929565, 1.9255344867706299]</t>
+          <t>[1.36075758934021, 1.995439887046814, 2.0200612545013428, 2.062119245529175, 2.074335813522339, 2.1553142070770264, 2.1859750747680664]</t>
         </is>
       </c>
       <c r="U62" t="n">
         <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>1.141450774788637</v>
+        <v>1.22976109015098</v>
       </c>
       <c r="W62" t="n">
-        <v>9</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0.4834822006297558</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.584717</t>
+          <t>2025-11-12T07:22:53.553251</t>
         </is>
       </c>
     </row>
@@ -5860,13 +5852,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C63" t="n">
         <v>3</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5882,64 +5874,60 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="b">
         <v>1</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>[71, 103, 79, 83, 90, 102, 124]</t>
+          <t>[71, 48, 69, 90, 37, 123, 79]</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[0.7342439293861389, 0.8839975595474243, 0.9219695329666138, 0.9574594497680664, 0.9910978078842163, 1.0150388479232788, 1.0183871984481812]</t>
+          <t>[0.9124700427055359, 1.1043514013290405, 1.1217710971832275, 1.2213666439056396, 1.223305583000183, 1.228980302810669, 1.2297050952911377]</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>[102, 139, 143, 9, 7, 121, 45]</t>
+          <t>[9, 15, 142, 165, 121, 58, 159]</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>[1.0150388479232788, 1.0873119831085205, 1.158658742904663, 1.3480218648910522, 1.4703971147537231, 1.486830234527588, 1.9255344867706299]</t>
+          <t>[1.2701534032821655, 1.270548701286316, 1.3194403648376465, 1.4698435068130493, 1.6791744232177734, 1.7087055444717407, 2.004002094268799]</t>
         </is>
       </c>
       <c r="U63" t="n">
         <v>5</v>
       </c>
       <c r="V63" t="n">
-        <v>1.003068290963726</v>
+        <v>1.226142980371287</v>
       </c>
       <c r="W63" t="n">
-        <v>4</v>
-      </c>
-      <c r="X63" t="n">
-        <v>0.4648690042010548</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.584717</t>
+          <t>2025-11-12T07:22:53.554249</t>
         </is>
       </c>
     </row>
@@ -5972,14 +5960,14 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K64" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N64" t="b">
         <v>1</v>
@@ -5989,47 +5977,47 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>[139, 97, 17, 71, 132, 124, 143]</t>
+          <t>[4, 7, 106, 13, 26, 10, 24]</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.2907591462135315, 0.3098526895046234, 0.4762324094772339, 0.6092221736907959, 0.6391661763191223, 0.6743265986442566]</t>
+          <t>[2.2449488639831543, 2.499774217605591, 2.65439772605896, 2.7235493659973145, 2.7459723949432373, 2.779331922531128, 2.7971994876861572]</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>[139, 143, 9, 58, 7, 121, 153]</t>
+          <t>[7, 149, 167, 67, 58, 121, 84]</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.6743265986442566, 0.8478673100471497, 1.0150388479232788, 1.2241731882095337, 1.3018968105316162, 1.6027143001556396]</t>
+          <t>[2.499774217605591, 3.8632924556732178, 3.8859522342681885, 4.109841346740723, 4.511235237121582, 4.521251678466797, 4.567921161651611]</t>
         </is>
       </c>
       <c r="U64" t="n">
         <v>5</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6241941382035605</v>
+        <v>2.762652143724926</v>
       </c>
       <c r="W64" t="n">
+        <v>7</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.5443459042329746</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4</v>
       </c>
-      <c r="X64" t="n">
-        <v>0.4716931457088545</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>97</v>
-      </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.584717</t>
+          <t>2025-11-12T07:22:53.554249</t>
         </is>
       </c>
     </row>
@@ -6062,14 +6050,14 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K65" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N65" t="b">
         <v>1</v>
@@ -6079,47 +6067,47 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>[7, 120, 150, 31, 6, 55, 145]</t>
+          <t>[58, 120, 146, 136, 70, 149, 55]</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.5519679188728333, 0.735078752040863, 0.7528611421585083, 0.8294775485992432, 0.8319898843765259, 0.972034752368927]</t>
+          <t>[0.4039050042629242, 0.6728370189666748, 0.8290613293647766, 0.8649263978004456, 0.9035753011703491, 0.9486286044120789, 0.9756906628608704]</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>[7, 45, 9, 139, 102, 143, 58]</t>
+          <t>[58, 149, 165, 142, 15, 9, 84]</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 1.0153549909591675, 1.0848945379257202, 1.1840670108795166, 1.3018968105316162, 1.4751609563827515, 1.486830234527588]</t>
+          <t>[0.4039050042629242, 0.9486286044120789, 1.1881738901138306, 1.2466304302215576, 1.3683058023452759, 1.5920535326004028, 1.6791744232177734]</t>
         </is>
       </c>
       <c r="U65" t="n">
         <v>5</v>
       </c>
       <c r="V65" t="n">
-        <v>0.8307337454311088</v>
+        <v>0.9261019669092363</v>
       </c>
       <c r="W65" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X65" t="n">
-        <v>0.5135400655639983</v>
+        <v>0.5248708096267587</v>
       </c>
       <c r="Y65" t="n">
         <v>120</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.584717</t>
+          <t>2025-11-12T07:22:53.554249</t>
         </is>
       </c>
     </row>
@@ -6130,7 +6118,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C66" t="n">
         <v>3</v>
@@ -6169,7 +6157,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>[102, 97, 132, 17, 124, 119, 76]</t>
+          <t>[15, 131, 97, 17, 75, 40, 65]</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -6179,37 +6167,37 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.36131569743156433, 0.36825448274612427, 0.38687416911125183, 0.5670149326324463, 0.5760982632637024, 0.5833657383918762]</t>
+          <t>[0.3143204152584076, 0.4444928765296936, 0.4464878439903259, 0.4768991470336914, 0.560705304145813, 0.5978885889053345, 0.6031650900840759]</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>[102, 143, 9, 58, 7, 121, 153]</t>
+          <t>[15, 9, 165, 121, 159, 84, 58]</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.6349484324455261, 0.7289791107177734, 1.0873119831085205, 1.126319169998169, 1.1840670108795166, 1.4750926494598389]</t>
+          <t>[0.3143204152584076, 0.6595668792724609, 0.7963255643844604, 1.2466304302215576, 1.3087053298950195, 1.3194403648376465, 1.3966552019119263]</t>
         </is>
       </c>
       <c r="U66" t="n">
         <v>5</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5715566000590809</v>
+        <v>0.5792969649110224</v>
       </c>
       <c r="W66" t="n">
         <v>6</v>
       </c>
       <c r="X66" t="n">
-        <v>0.471259567615395</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y66" t="n">
         <v>17</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.584717</t>
+          <t>2025-11-12T07:22:53.554249</t>
         </is>
       </c>
     </row>
@@ -6220,13 +6208,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C67" t="n">
         <v>3</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -6242,60 +6230,64 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K67" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="b">
         <v>1</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>[63, 76, 110, 147, 111, 97, 16]</t>
+          <t>[121, 58, 103, 62, 72, 120, 73]</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[0.3796297311782837, 0.39794325828552246, 0.4668952524662018, 0.5109684467315674, 0.533180832862854, 0.5471352934837341, 0.5629119277000427]</t>
+          <t>[0.9486286044120789, 1.0060019493103027, 1.0349825620651245, 1.043994426727295, 1.1175799369812012, 1.198166012763977, 1.2710840702056885]</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>[139, 9, 102, 153, 58, 121, 7]</t>
+          <t>[121, 58, 67, 165, 142, 15, 9]</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>[0.6349484324455261, 0.639224112033844, 0.6743265986442566, 1.1125237941741943, 1.158658742904663, 1.4751609563827515, 1.557084560394287]</t>
+          <t>[0.9486286044120789, 1.0060019493103027, 1.36075758934021, 1.661763310432434, 1.7279688119888306, 1.8581569194793701, 2.0275418758392334]</t>
         </is>
       </c>
       <c r="U67" t="n">
         <v>5</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5401580622085429</v>
+        <v>1.157872966904788</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.4090454577821077</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>62</v>
+      </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.585717</t>
+          <t>2025-11-12T07:22:53.554249</t>
         </is>
       </c>
     </row>
@@ -6306,13 +6298,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C68" t="n">
         <v>3</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -6328,60 +6320,64 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K68" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="b">
         <v>1</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>[160, 74, 16, 111, 128, 63, 85]</t>
+          <t>[156, 16, 74, 63, 111, 40, 165]</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>[0.7418535351753235, 0.8169267773628235, 0.8513126373291016, 0.9142948985099792, 0.9250989556312561, 0.9332956671714783, 0.9378286004066467]</t>
+          <t>[0.7479844689369202, 0.8024157881736755, 0.8204770088195801, 0.8479322791099548, 0.8673714399337769, 0.8892582058906555, 0.9107834696769714]</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>[9, 143, 139, 102, 121, 58, 7]</t>
+          <t>[165, 9, 142, 15, 58, 121, 84]</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>[0.9712804555892944, 1.1125237941741943, 1.4750926494598389, 1.6027143001556396, 1.913097858428955, 2.070220708847046, 2.0944221019744873]</t>
+          <t>[0.9107834696769714, 0.9870123863220215, 1.3087053298950195, 1.4321900606155396, 1.8709691762924194, 1.9660354852676392, 2.004002094268799]</t>
         </is>
       </c>
       <c r="U68" t="n">
         <v>5</v>
       </c>
       <c r="V68" t="n">
-        <v>0.9291972901307302</v>
+        <v>0.8783148328236311</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.5389569866079409</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>74</v>
+      </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.585717</t>
+          <t>2025-11-12T07:22:53.555248</t>
         </is>
       </c>
     </row>
@@ -6392,7 +6388,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C69" t="n">
         <v>3</v>
@@ -6431,47 +6427,47 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>[4, 15, 106, 115, 151, 13, 26]</t>
+          <t>[16, 40, 37, 74, 111, 9, 110]</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[1.961000919342041, 2.4762635231018066, 2.548816442489624, 2.642822742462158, 2.7597248554229736, 2.781341075897217, 2.8036293983459473]</t>
+          <t>[0.31967228651046753, 0.34488022327423096, 0.5955296754837036, 0.5984890460968018, 0.6478413939476013, 0.6770656108856201, 0.6976949572563171]</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>[15, 45, 169, 21, 168, 7, 121]</t>
+          <t>[9, 142, 15, 159, 58, 121, 84]</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>[2.4762635231018066, 3.7356345653533936, 3.849271774291992, 3.852335214614868, 3.940241575241089, 4.46036958694458, 4.488486289978027]</t>
+          <t>[0.6770656108856201, 0.7963255643844604, 0.8948940634727478, 0.9107834696769714, 1.1279429197311401, 1.1881738901138306, 1.4698435068130493]</t>
         </is>
       </c>
       <c r="U69" t="n">
         <v>5</v>
       </c>
       <c r="V69" t="n">
-        <v>2.770533035325413</v>
+        <v>0.6624534722103811</v>
       </c>
       <c r="W69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X69" t="n">
-        <v>0.5122486851695403</v>
+        <v>0.5815132947852186</v>
       </c>
       <c r="Y69" t="n">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.585717</t>
+          <t>2025-11-12T07:22:53.555248</t>
         </is>
       </c>
     </row>
@@ -6482,13 +6478,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C70" t="n">
         <v>3</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -6504,64 +6500,60 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="b">
         <v>1</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>[123, 1, 21, 167, 161, 3, 32]</t>
+          <t>[1, 122, 163, 157, 3, 32, 53]</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[0.4420248568058014, 0.4420248568058014, 0.7553806304931641, 0.8172926902770996, 1.0266729593276978, 1.2000261545181274, 1.2284033298492432]</t>
+          <t>[0.48484399914741516, 0.48484399914741516, 0.8827974796295166, 1.1573588848114014, 1.1785125732421875, 1.2328144311904907, 1.366477608680725]</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>[21, 58, 7, 121, 45, 102, 9]</t>
+          <t>[84, 58, 7, 121, 165, 149, 15]</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>[0.7553806304931641, 2.204462766647339, 2.5074117183685303, 2.5194039344787598, 2.7999069690704346, 2.8101322650909424, 2.880220651626587]</t>
+          <t>[2.5333683490753174, 2.8875086307525635, 2.9328017234802246, 2.9491524696350098, 3.1867213249206543, 3.2210705280303955, 3.310270309448242]</t>
         </is>
       </c>
       <c r="U70" t="n">
         <v>5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.113349525776166</v>
+        <v>1.205663557172873</v>
       </c>
       <c r="W70" t="n">
-        <v>6</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0.4705137712668338</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.585717</t>
+          <t>2025-11-12T07:22:53.555248</t>
         </is>
       </c>
     </row>
@@ -6572,13 +6564,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6594,60 +6586,64 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K71" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="b">
         <v>1</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>[75, 36, 29, 69, 73, 77, 126]</t>
+          <t>[94, 23, 87, 164, 60, 81, 109]</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[0.8769850134849548, 0.9809556007385254, 0.998561441898346, 1.1135129928588867, 1.1277869939804077, 1.2100275754928589, 1.2619000673294067]</t>
+          <t>[1.2203000783920288, 1.6926363706588745, 1.8774335384368896, 2.0870163440704346, 2.117780923843384, 2.381152868270874, 2.4321563243865967]</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>[45, 139, 121, 7, 9, 102, 143]</t>
+          <t>[94, 87, 164, 60, 81, 109, 25]</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>[1.3090776205062866, 1.981188416481018, 1.9998292922973633, 2.0157172679901123, 2.030216693878174, 2.1122682094573975, 2.1427667140960693]</t>
+          <t>[1.2203000783920288, 1.8774335384368896, 2.0870163440704346, 2.117780923843384, 2.381152868270874, 2.4321563243865967, 2.8773860931396484]</t>
         </is>
       </c>
       <c r="U71" t="n">
         <v>5</v>
       </c>
       <c r="V71" t="n">
-        <v>1.168907214591322</v>
+        <v>2.249466830893394</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.4661796049705298</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>164</v>
+      </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.585717</t>
+          <t>2025-11-12T07:22:53.806652</t>
         </is>
       </c>
     </row>
@@ -6664,7 +6660,7 @@
         <v>5</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6680,60 +6676,64 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K72" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="b">
         <v>1</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>[122, 114, 134, 112, 125, 127, 105]</t>
+          <t>[109, 94, 14, 164, 87, 60, 108]</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[3.548219919204712, 5.758365631103516, 5.858821868896484, 6.487487316131592, 6.512106418609619, 6.526312828063965, 6.619352340698242]</t>
+          <t>[1.0071320533752441, 2.3148419857025146, 2.8773860931396484, 2.8954005241394043, 3.425870418548584, 3.482402801513672, 3.556636095046997]</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>[94, 156, 118, 104, 81, 87, 60]</t>
+          <t>[109, 94, 14, 164, 87, 60, 81]</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>[7.731835842132568, 8.581768989562988, 8.609739303588867, 8.691213607788086, 8.94638442993164, 9.074629783630371, 9.31938362121582]</t>
+          <t>[1.0071320533752441, 2.3148419857025146, 2.8773860931396484, 2.8954005241394043, 3.425870418548584, 3.482402801513672, 3.5626161098480225]</t>
         </is>
       </c>
       <c r="U72" t="n">
         <v>5</v>
       </c>
       <c r="V72" t="n">
-        <v>6.519209427564801</v>
+        <v>3.454136595739305</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.5829919351087561</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>109</v>
+      </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.713423</t>
+          <t>2025-11-12T07:22:53.806652</t>
         </is>
       </c>
     </row>
@@ -6766,14 +6766,14 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K73" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N73" t="b">
         <v>1</v>
@@ -6783,47 +6783,47 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>[156, 94, 87, 109, 162, 81, 157]</t>
+          <t>[87, 14, 107, 148, 94, 23, 109]</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 0, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[1.7238720655441284, 2.213388204574585, 2.300889730453491, 2.4434309005737305, 2.5505406856536865, 2.6279022693634033, 2.7048349380493164]</t>
+          <t>[1.3464914560317993, 2.117780923843384, 2.2423603534698486, 2.3751816749572754, 2.7694647312164307, 2.8419857025146484, 2.8423948287963867]</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>[156, 94, 87, 109, 81, 129, 118]</t>
+          <t>[87, 14, 94, 109, 164, 25, 81]</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>[1.7238720655441284, 2.213388204574585, 2.300889730453491, 2.4434309005737305, 2.6279022693634033, 3.038969039916992, 6.031808853149414]</t>
+          <t>[1.3464914560317993, 2.117780923843384, 2.7694647312164307, 2.8423948287963867, 3.47521710395813, 3.482402801513672, 4.422701358795166]</t>
         </is>
       </c>
       <c r="U73" t="n">
         <v>5</v>
       </c>
       <c r="V73" t="n">
-        <v>2.589221551896814</v>
+        <v>2.805725195773698</v>
       </c>
       <c r="W73" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X73" t="n">
-        <v>0.4661796049705298</v>
+        <v>0.5443459042329746</v>
       </c>
       <c r="Y73" t="n">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.714434</t>
+          <t>2025-11-12T07:22:53.807653</t>
         </is>
       </c>
     </row>
@@ -6873,47 +6873,47 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>[157, 54, 162, 60, 94, 72, 87]</t>
+          <t>[94, 14, 164, 108, 138, 23, 115]</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 1, 0, 1]</t>
+          <t>[1, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[1.3550022840499878, 2.110875129699707, 2.3781371116638184, 2.6279022693634033, 2.7967379093170166, 2.842989206314087, 2.9225618839263916]</t>
+          <t>[2.3045825958251953, 2.381152868270874, 2.386029005050659, 2.74284029006958, 3.0021142959594727, 3.1583945751190186, 3.191826343536377]</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>[60, 94, 87, 129, 109, 156, 118]</t>
+          <t>[94, 14, 164, 109, 25, 87, 60]</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>[2.6279022693634033, 2.7967379093170166, 2.9225618839263916, 3.496691942214966, 3.6776535511016846, 3.725713014602661, 5.9708662033081055]</t>
+          <t>[2.3045825958251953, 2.381152868270874, 2.386029005050659, 3.544670820236206, 3.5626161098480225, 4.017862319946289, 4.422701358795166]</t>
         </is>
       </c>
       <c r="U74" t="n">
         <v>5</v>
       </c>
       <c r="V74" t="n">
-        <v>2.81986357613968</v>
+        <v>3.080254324668591</v>
       </c>
       <c r="W74" t="n">
         <v>9</v>
       </c>
       <c r="X74" t="n">
-        <v>0.5829919351087561</v>
+        <v>0.4648690042010548</v>
       </c>
       <c r="Y74" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.714676</t>
+          <t>2025-11-12T07:22:53.807653</t>
         </is>
       </c>
     </row>
@@ -6963,47 +6963,47 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>[109, 94, 60, 66, 30, 141, 81]</t>
+          <t>[60, 14, 107, 94, 23, 109, 148]</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 0, 1]</t>
+          <t>[1, 1, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[1.0273101329803467, 2.022925615310669, 2.300889730453491, 2.4294118881225586, 2.9101552963256836, 2.9200985431671143, 2.9225618839263916]</t>
+          <t>[1.3464914560317993, 1.8774335384368896, 2.213010549545288, 2.4451022148132324, 2.7326161861419678, 2.85517954826355, 2.9604532718658447]</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>[109, 94, 60, 81, 156, 129, 118]</t>
+          <t>[60, 14, 94, 109, 164, 25, 81]</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>[1.0273101329803467, 2.022925615310669, 2.300889730453491, 2.9225618839263916, 3.228111982345581, 3.639315605163574, 5.8619890213012695]</t>
+          <t>[1.3464914560317993, 1.8774335384368896, 2.4451022148132324, 2.85517954826355, 3.3579046726226807, 3.425870418548584, 4.017862319946289]</t>
         </is>
       </c>
       <c r="U75" t="n">
         <v>5</v>
       </c>
       <c r="V75" t="n">
-        <v>2.915126815507936</v>
+        <v>2.793897844989489</v>
       </c>
       <c r="W75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X75" t="n">
-        <v>0.5443459042329746</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y75" t="n">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.714676</t>
+          <t>2025-11-12T07:22:53.807653</t>
         </is>
       </c>
     </row>
@@ -7020,7 +7020,7 @@
         <v>5</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -7036,60 +7036,64 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K76" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76" t="b">
         <v>1</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>[66, 141, 30, 121, 74, 40, 73]</t>
+          <t>[14, 109, 81, 25, 87, 23, 164]</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[1.2703914642333984, 1.595096230506897, 1.6472960710525513, 1.7924511432647705, 1.9150326251983643, 1.918045997619629, 1.9635708332061768]</t>
+          <t>[1.2203000783920288, 2.2812395095825195, 2.3045825958251953, 2.3148419857025146, 2.4451022148132324, 2.552834987640381, 2.5834226608276367]</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>[87, 60, 156, 109, 81, 129, 118]</t>
+          <t>[14, 109, 81, 25, 87, 164, 60]</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>[2.022925615310669, 2.213388204574585, 2.2484099864959717, 2.7271506786346436, 2.7967379093170166, 3.532566547393799, 5.384163856506348]</t>
+          <t>[1.2203000783920288, 2.2812395095825195, 2.3045825958251953, 2.3148419857025146, 2.4451022148132324, 2.5834226608276367, 2.7694647312164307]</t>
         </is>
       </c>
       <c r="U76" t="n">
         <v>5</v>
       </c>
       <c r="V76" t="n">
-        <v>1.916539280252868</v>
+        <v>2.498968644573256</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.4210988519660541</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>14</v>
+      </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.714676</t>
+          <t>2025-11-12T07:22:53.807653</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7104,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C77" t="n">
         <v>5</v>
@@ -7122,14 +7126,14 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K77" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N77" t="b">
         <v>1</v>
@@ -7139,47 +7143,47 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>[25, 122, 0, 44, 22, 38, 40]</t>
+          <t>[25, 94, 164, 14, 60, 87, 108]</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[8.691213607788086, 8.894898414611816, 9.207416534423828, 9.523646354675293, 9.698634147644043, 9.74061107635498, 9.782272338867188]</t>
+          <t>[1.0071320533752441, 2.2812395095825195, 2.285822629928589, 2.4321563243865967, 2.8423948287963867, 2.85517954826355, 3.148904323577881]</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>[25, 156, 94, 118, 87, 60, 81]</t>
+          <t>[25, 94, 164, 14, 60, 87, 81]</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>[8.691213607788086, 9.828558921813965, 9.933645248413086, 10.808511734008789, 10.901507377624512, 11.009100914001465, 11.035375595092773]</t>
+          <t>[1.0071320533752441, 2.2812395095825195, 2.285822629928589, 2.4321563243865967, 2.8423948287963867, 2.85517954826355, 3.544670820236206]</t>
         </is>
       </c>
       <c r="U77" t="n">
         <v>5</v>
       </c>
       <c r="V77" t="n">
-        <v>9.719622426767108</v>
+        <v>2.848787136167361</v>
       </c>
       <c r="W77" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X77" t="n">
-        <v>0.4648690042010548</v>
+        <v>0.471259567615395</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.715864</t>
+          <t>2025-11-12T07:22:53.807653</t>
         </is>
       </c>
     </row>
@@ -7190,13 +7194,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C78" t="n">
         <v>5</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -7212,64 +7216,60 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="N78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="b">
         <v>1</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>[87, 60, 94, 66, 156, 160, 153]</t>
+          <t>[51, 38, 41, 31, 161, 22, 98]</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[1.0273101329803467, 2.4434309005737305, 2.7271506786346436, 2.9120495319366455, 3.322721242904663, 3.4090917110443115, 3.4260995388031006]</t>
+          <t>[3.7599010467529297, 6.031514644622803, 6.2064971923828125, 6.269556522369385, 6.6227216720581055, 6.694086074829102, 6.834046840667725]</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>[87, 60, 94, 156, 81, 129, 118]</t>
+          <t>[164, 81, 14, 109, 94, 60, 87]</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>[1.0273101329803467, 2.4434309005737305, 2.7271506786346436, 3.322721242904663, 3.6776535511016846, 3.9307637214660645, 6.2379069328308105]</t>
+          <t>[7.9577317237854, 8.746208190917969, 9.343550682067871, 9.818655967712402, 10.141305923461914, 10.25412368774414, 10.327604293823242]</t>
         </is>
       </c>
       <c r="U78" t="n">
         <v>5</v>
       </c>
       <c r="V78" t="n">
-        <v>3.365906318471305</v>
+        <v>6.658403778111246</v>
       </c>
       <c r="W78" t="n">
-        <v>6</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0.5885707141115961</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.715864</t>
+          <t>2025-11-12T07:22:53.808652</t>
         </is>
       </c>
     </row>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="C79" t="n">
         <v>5</v>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>[151, 4, 52, 64, 129, 115, 89]</t>
+          <t>[108, 30, 115, 58, 14, 151, 44]</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -7329,222 +7329,42 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[3.133359909057617, 3.513723611831665, 3.5403130054473877, 3.5604045391082764, 3.612931966781616, 3.6478750705718994, 3.7720181941986084]</t>
+          <t>[1.5264652967453003, 1.9698083400726318, 1.996938943862915, 2.0467700958251953, 2.0870163440704346, 2.1222028732299805, 2.254150152206421]</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>[129, 94, 87, 81, 156, 60, 109]</t>
+          <t>[14, 109, 81, 94, 25, 87, 60]</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>[3.612931966781616, 5.384163856506348, 5.8619890213012695, 5.9708662033081055, 6.016942501068115, 6.031808853149414, 6.2379069328308105]</t>
+          <t>[2.0870163440704346, 2.285822629928589, 2.386029005050659, 2.5834226608276367, 2.8954005241394043, 3.3579046726226807, 3.47521710395813]</t>
         </is>
       </c>
       <c r="U79" t="n">
         <v>5</v>
       </c>
       <c r="V79" t="n">
-        <v>3.630403595327791</v>
+        <v>2.10460961722997</v>
       </c>
       <c r="W79" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X79" t="n">
-        <v>0.4210988519660541</v>
+        <v>0.5815132947852186</v>
       </c>
       <c r="Y79" t="n">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-05T15:34:37.716432</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>129</v>
-      </c>
-      <c r="C80" t="n">
-        <v>5</v>
-      </c>
-      <c r="D80" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>7</v>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="N80" t="b">
-        <v>1</v>
-      </c>
-      <c r="O80" t="b">
-        <v>1</v>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>[11, 89, 140, 27, 60, 39, 54]</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>[2.803957462310791, 2.8238894939422607, 2.94252347946167, 2.955589532852173, 3.038969039916992, 3.0768940448760986, 3.0922813415527344]</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>[60, 81, 94, 118, 87, 156, 109]</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>[3.038969039916992, 3.496691942214966, 3.532566547393799, 3.612931966781616, 3.639315605163574, 3.699251413345337, 3.9307637214660645]</t>
-        </is>
-      </c>
-      <c r="U80" t="n">
-        <v>5</v>
-      </c>
-      <c r="V80" t="n">
-        <v>3.057931592836397</v>
-      </c>
-      <c r="W80" t="n">
-        <v>7</v>
-      </c>
-      <c r="X80" t="n">
-        <v>0.471259567615395</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>2025-11-05T15:34:37.716432</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>156</v>
-      </c>
-      <c r="C81" t="n">
-        <v>5</v>
-      </c>
-      <c r="D81" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>7</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="N81" t="b">
-        <v>1</v>
-      </c>
-      <c r="O81" t="b">
-        <v>1</v>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>[60, 94, 66, 141, 162, 30, 61]</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>[1.7238720655441284, 2.2484099864959717, 2.5474069118499756, 2.8303911685943604, 2.8477210998535156, 2.8886678218841553, 2.9460201263427734]</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>[60, 94, 87, 109, 129, 81, 118]</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>[1.7238720655441284, 2.2484099864959717, 3.228111982345581, 3.322721242904663, 3.699251413345337, 3.725713014602661, 6.016942501068115]</t>
-        </is>
-      </c>
-      <c r="U81" t="n">
-        <v>5</v>
-      </c>
-      <c r="V81" t="n">
-        <v>2.868194466789705</v>
-      </c>
-      <c r="W81" t="n">
-        <v>7</v>
-      </c>
-      <c r="X81" t="n">
-        <v>0.5815132947852186</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>141</v>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>2025-11-05T15:34:37.716967</t>
+          <t>2025-11-12T07:22:53.808652</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Z81">
+  <conditionalFormatting sqref="A2:Z79">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>=$D2=FALSE</formula>
     </cfRule>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D50_R75_PPproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D50_R75_PPproporcion.xlsx
@@ -657,7 +657,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.231279</t>
+          <t>2025-11-13T06:52:20.935722</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.231279</t>
+          <t>2025-11-13T06:52:20.935722</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.232275</t>
+          <t>2025-11-13T06:52:20.935722</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.232275</t>
+          <t>2025-11-13T06:52:20.936723</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.233273</t>
+          <t>2025-11-13T06:52:20.936723</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.233273</t>
+          <t>2025-11-13T06:52:20.936723</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.233273</t>
+          <t>2025-11-13T06:52:20.936723</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.237500</t>
+          <t>2025-11-13T06:52:20.937722</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.237500</t>
+          <t>2025-11-13T06:52:20.937722</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.238076</t>
+          <t>2025-11-13T06:52:20.937722</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.238680</t>
+          <t>2025-11-13T06:52:20.937722</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.239248</t>
+          <t>2025-11-13T06:52:20.938722</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.239763</t>
+          <t>2025-11-13T06:52:20.938722</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.239952</t>
+          <t>2025-11-13T06:52:20.939504</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.239952</t>
+          <t>2025-11-13T06:52:20.939504</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.240519</t>
+          <t>2025-11-13T06:52:20.940017</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.240519</t>
+          <t>2025-11-13T06:52:20.940017</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.241081</t>
+          <t>2025-11-13T06:52:20.940017</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.241081</t>
+          <t>2025-11-13T06:52:20.940017</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.241081</t>
+          <t>2025-11-13T06:52:20.940017</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.241637</t>
+          <t>2025-11-13T06:52:20.940017</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.241637</t>
+          <t>2025-11-13T06:52:20.943462</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.241637</t>
+          <t>2025-11-13T06:52:20.943462</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.242190</t>
+          <t>2025-11-13T06:52:20.943462</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.242190</t>
+          <t>2025-11-13T06:52:20.944469</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.242747</t>
+          <t>2025-11-13T06:52:20.944469</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.242747</t>
+          <t>2025-11-13T06:52:20.944469</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.242747</t>
+          <t>2025-11-13T06:52:20.944469</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.243301</t>
+          <t>2025-11-13T06:52:20.945464</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.243301</t>
+          <t>2025-11-13T06:52:20.945464</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.243810</t>
+          <t>2025-11-13T06:52:20.945464</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.243856</t>
+          <t>2025-11-13T06:52:20.945464</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.243856</t>
+          <t>2025-11-13T06:52:20.945464</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.244407</t>
+          <t>2025-11-13T06:52:20.945464</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.244982</t>
+          <t>2025-11-13T06:52:20.946463</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.245495</t>
+          <t>2025-11-13T06:52:20.946463</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.245539</t>
+          <t>2025-11-13T06:52:20.946463</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.246092</t>
+          <t>2025-11-13T06:52:20.946463</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.246092</t>
+          <t>2025-11-13T06:52:20.946463</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.246646</t>
+          <t>2025-11-13T06:52:20.947464</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.247198</t>
+          <t>2025-11-13T06:52:20.947464</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.247198</t>
+          <t>2025-11-13T06:52:20.947464</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.247751</t>
+          <t>2025-11-13T06:52:20.947464</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.248303</t>
+          <t>2025-11-13T06:52:20.947464</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.248303</t>
+          <t>2025-11-13T06:52:20.948463</t>
         </is>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.248863</t>
+          <t>2025-11-13T06:52:20.948463</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.248863</t>
+          <t>2025-11-13T06:52:20.948463</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.249428</t>
+          <t>2025-11-13T06:52:20.948463</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.249993</t>
+          <t>2025-11-13T06:52:20.948463</t>
         </is>
       </c>
     </row>
@@ -4879,7 +4879,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.249993</t>
+          <t>2025-11-13T06:52:20.949462</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.253446</t>
+          <t>2025-11-13T06:52:20.949462</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.253969</t>
+          <t>2025-11-13T06:52:20.949462</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.254434</t>
+          <t>2025-11-13T06:52:20.949462</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.255040</t>
+          <t>2025-11-13T06:52:20.949462</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.255599</t>
+          <t>2025-11-13T06:52:20.949462</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.256127</t>
+          <t>2025-11-13T06:52:20.950463</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.552252</t>
+          <t>2025-11-13T06:52:21.235628</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.553251</t>
+          <t>2025-11-13T06:52:21.235628</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.553251</t>
+          <t>2025-11-13T06:52:21.235628</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.553251</t>
+          <t>2025-11-13T06:52:21.235628</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.553251</t>
+          <t>2025-11-13T06:52:21.235628</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.554249</t>
+          <t>2025-11-13T06:52:21.236626</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.554249</t>
+          <t>2025-11-13T06:52:21.236626</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.554249</t>
+          <t>2025-11-13T06:52:21.236626</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.554249</t>
+          <t>2025-11-13T06:52:21.236626</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.554249</t>
+          <t>2025-11-13T06:52:21.237247</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.555248</t>
+          <t>2025-11-13T06:52:21.237247</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.555248</t>
+          <t>2025-11-13T06:52:21.237247</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.555248</t>
+          <t>2025-11-13T06:52:21.237890</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.806652</t>
+          <t>2025-11-13T06:52:21.907678</t>
         </is>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.806652</t>
+          <t>2025-11-13T06:52:21.907678</t>
         </is>
       </c>
     </row>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.807653</t>
+          <t>2025-11-13T06:52:21.907678</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.807653</t>
+          <t>2025-11-13T06:52:21.907678</t>
         </is>
       </c>
     </row>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.807653</t>
+          <t>2025-11-13T06:52:21.907678</t>
         </is>
       </c>
     </row>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.807653</t>
+          <t>2025-11-13T06:52:21.907678</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.807653</t>
+          <t>2025-11-13T06:52:21.907678</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.808652</t>
+          <t>2025-11-13T06:52:21.907678</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:53.808652</t>
+          <t>2025-11-13T06:52:21.907678</t>
         </is>
       </c>
     </row>
